--- a/Elecciones 11 Abril 2021/candidaturas ligth/Constituyentes PI 31 marzo.xlsx
+++ b/Elecciones 11 Abril 2021/candidaturas ligth/Constituyentes PI 31 marzo.xlsx
@@ -5,36 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\candidaturas ligth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC40154-BD3C-435B-A832-4AA617B54F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC52F6-74E7-46FF-A5FB-54A779C74AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6CCDE4BB-7F3F-427A-A158-235B9EEC68C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6CCDE4BB-7F3F-427A-A158-235B9EEC68C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$191</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="645">
   <si>
     <t>Pueblo</t>
   </si>
@@ -204,9 +198,6 @@
     <t>Pablo Johao Butron Yovich</t>
   </si>
   <si>
-    <t>https://www.facebook.com/butron.ruido?hc_ref=ARSVyrh7MZBh1Yl4T-9mMGks6Z07EJVKqvh6E1HVSPIr7pd62lqKbgkdqXiN6ZORF8w&amp;ref=nf_target</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/butronyovich/</t>
   </si>
   <si>
@@ -357,9 +348,6 @@
     <t>https://www.facebook.com/cacho.cortes.39/</t>
   </si>
   <si>
-    <t>https://twitter.com/horacio30105294</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/horacio_vicente_cortes_molina.png</t>
   </si>
   <si>
@@ -378,9 +366,6 @@
     <t>Brenda Isabel Gutierrez Almendares</t>
   </si>
   <si>
-    <t>https://www.facebook.com/brenda.gutierrezalmendares/</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/8/82/Coat_of_arms_of_Atacama%2C_Chile.svg</t>
   </si>
   <si>
@@ -501,9 +486,6 @@
     <t>Ernesto Eduardo Alca Yaga Arostica</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Solange-Bordones-Ernesto-Alcayaga-Diaguitas-de-cordillera-a-mar-100253378751831</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/solange_y_ernesto_diaguitas/</t>
   </si>
   <si>
@@ -555,9 +537,6 @@
     <t>Eric Johanny Chinga Ferreira</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Red-Nacional-Diaguita-2100470693552068</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/eric_johanny_chinga_ferreira.png</t>
   </si>
   <si>
@@ -657,15 +636,9 @@
     <t>Alejandrina Carmen Ayabire Ayabire</t>
   </si>
   <si>
-    <t>https://www.facebook.com/profile.php?id=100005655558079</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/alejandrinaayabire/?hl=es-la</t>
   </si>
   <si>
-    <t>https://twitter.com/janitacarmela40</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandrina_carmen_ayabire_ayabire.png</t>
   </si>
   <si>
@@ -708,9 +681,6 @@
     <t>Lila Nolberta Colamar Teran</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Lila-Colamar-Ter%C3%A1n-Constituyente-545191459749740/</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/lila_nolberta_colamar_teran.png</t>
   </si>
   <si>
@@ -723,12 +693,6 @@
     <t>Oriana Mabel Mora Rodriguez</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Lickau-Oriana-Mora-Rodr%C3%ADguez-Constituyente-100158592118050</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/omoraconstituyentelickanantay/?fbclid=IwAR1RVJwNdUIFjzPoLFK0VlFqMzk0rjlHxvmpeJBnQI1KbCtCqeTCtP9TFJQ</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/oriana_mabel_mora_rodriguez.png</t>
   </si>
   <si>
@@ -888,9 +852,6 @@
     <t>Natividad Del Carmen Llanquileo Pilquiman</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Natividad-Llanquileo-Constituyente-101645975100036/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/natividadllanquileo/</t>
   </si>
   <si>
@@ -1017,9 +978,6 @@
     <t>Galvarino Reiman Huilcaman</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Galvarino-Reiman-H-Werken-a-Constituyente-103237705059258/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/galvarino.reiman/</t>
   </si>
   <si>
@@ -1047,9 +1005,6 @@
     <t>Ingrid Maritza Conejeros Montecino</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Ingrid-Conejeros-Constituyente-103719884967939</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/ingrid.conejeros/</t>
   </si>
   <si>
@@ -1143,9 +1098,6 @@
     <t>Pedro Omar Calbuñir Pinoleo</t>
   </si>
   <si>
-    <t>https://www.facebook.com/people/Pedro-Omar-Calbu%C3%B1ir-Pinoleo/100010878789892</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pedro_omar_calbunir_pinoleo.png</t>
   </si>
   <si>
@@ -1260,9 +1212,6 @@
     <t>Maribel Del Carmen Varas Loncuante</t>
   </si>
   <si>
-    <t>https://www.facebook.com/maribel.varas.908?fref=nf</t>
-  </si>
-  <si>
     <t>https://twitter.com/varas_maribel?lang=ar</t>
   </si>
   <si>
@@ -1293,9 +1242,6 @@
     <t>https://www.facebook.com/yonathan.eduardo.14</t>
   </si>
   <si>
-    <t>https://www.instagram.com/yona.0010/</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/yonathan_eduardo_paillacheo_barriga.png</t>
   </si>
   <si>
@@ -1326,9 +1272,6 @@
     <t>Alihuen Antileo Navarrete</t>
   </si>
   <si>
-    <t>https://www.facebook.com/Alihuen-Antileo-Constituyente-Mapuche-101153018591121/</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/alihuenantileon/</t>
   </si>
   <si>
@@ -1386,9 +1329,6 @@
     <t>Ivan Cheuquelaf Rodriguez</t>
   </si>
   <si>
-    <t>https://www.facebook.com/profile.php?id=1226049141</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/icheuquelaf/</t>
   </si>
   <si>
@@ -1419,9 +1359,6 @@
     <t>Ricardo Inalef Mora</t>
   </si>
   <si>
-    <t>https://www.facebook.com/profile.php?id=100013484262139</t>
-  </si>
-  <si>
     <t>https://www.instagram.com/ricardoinalef/</t>
   </si>
   <si>
@@ -1591,6 +1528,441 @@
   </si>
   <si>
     <t>Luis Francisco Gomez Zarraga</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jimenez.aymara/?hl=es</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jennyfer.choque/?hl=es</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jennyfer_miriam_choque_flores.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/maritzaquispe3</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maritza.quispe.medina/?hl=es</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/josemanuel.troncosoflores</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jose_manuel_troncoso_flores.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/leslie_jasmin_villca_lovera.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/carlos_bacilio_cañari_ramirez.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/cna_putre</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cna_putre/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/delia_norma_condori_flores.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcela.gomezmamani</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Marcela_GomezM</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marcelagomezmamani/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcela_maria_gomez_mamani.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juancayo/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcelo_antonio_centella_molina.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/huancamaitaangelino/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/angelino_santos_huanca_maita.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandra_tapia_alave.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rolandoaguirrem/?hl=es</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rolando_javier_aguirre_medina.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/joel.zoey</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/joel_isaac_diaz_mamani.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isabrunimamani/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/franco_hector_eyzaguirre_fernandez.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nelida_moscoso_yo_soy_aymara/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/nelida_claudia_moscoso_moscoso.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/pablo_johao_butro_yovich.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cuatro.nustas.5</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChallapaYanet</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yanetchallapa_constituyente/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/yanet_teodora_challapa_flores.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marcelo_condore/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/marcelo_hernan_condore_vilca.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alinepapic/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/aliñe_patricia_papic_tiaina.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/richardschallapa/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/richards_antonio_challapa_ayavire.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/horaciocorteschango/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_alberto_castro_alvarez.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pueblochango/photos/?ref=page_internal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/isabelgodoym</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/isabel_godoym/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/christianmillacolla</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/paipote_tv/?hl=es-la</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/christian_alejandro_milla_mancilla.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Helena_lega</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/elena_de_lourdes_rivera_cardozo.png</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/oscargonzalezlorca/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/cristofer_andre_castillo_geronimo.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/inessolesdad.carvajalrojas</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ines_soledad_carvajal_rojas.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sergio_fernando_campusano_villches.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jewolpaks</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lucia.a.caro.1/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jose_octavio_parancan_hueicha.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/juanfrancisco.gonzalezcaro/about</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_francisco_gonzalez_caro.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/celina.llanllan</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/explore/tags/celinallanllan/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/saramercedesbernamollo/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sara_mercedes_berna_mollo.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/marcelina.llancapancalfucura</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mariano_segundo_cayul_canio.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/mabel_salas_colipi.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/newenterritorial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NewenTerritorio</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luz_lorena_cheuquel_paillalef.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/santo_reinao_millahual.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/juan_agustin_correa_naupa.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leeo.gaete</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/samuel_leonardo_gaete_arcos.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/miriamangelina.colinlincolao</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/myriam_angelina_colin_lincolao.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HuirilefConstituyente</t>
+  </si>
+  <si>
+    <t>https://twitter.com/huirilefc</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hilario_huirilef_leal_cc/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/andres_hilario_huirilef_leal.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/josefina_isabel_fica_leufuman.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/manuelsantander.solis</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/manuel_alberto_santander_solis.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rosa_maria_caniupil_huaiquiñir.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RichardCaifal</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/richard_fernando_caifal_piutrin.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/curamil</t>
+  </si>
+  <si>
+    <t>https://twitter.com/hanscuramil</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hanscuramil/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/hans_williams_samuel_curamil_aniñir.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/ingrid_jacqueline_pedraza_huinca.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/carmentomasa.caifilcaifil</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/carmen_tomasa_caifil_caifil.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sonia.catepillan</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/sonia_marlene_catepillan_guinao.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/manuel_rolando_rauque_guenteo.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ConvencionalesQuechuas/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/thelma_yobana_ramos_mamani.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/aetamaru.hukeainsa</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/alejandro_enrique_tamaru_huke_ainsa.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lidia.gonzalezcalderon</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/elianaesmeralda.monardezdiaz</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/eliana_esmeralda_monardez_diaz.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/heriberto.monardez.9</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/heriberto_evaristo_monardez_diaz.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ireuque</t>
+  </si>
+  <si>
+    <t>https://twitter.com/IsoldeLeo</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/rosa_isolde_reuque_paillalef.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/leonardo.javier.castillo</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/leonardo_javier_castillo_cardenas.png</t>
+  </si>
+  <si>
+    <t>https://twitter.com/jaime_mariman</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jaime_mariman/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/jaime_javier_mariman_naguelquin.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Apo-Ulmen-Luis-Pailapichun-Yefi-Y-Susana-Jacqueline-Rumian-Constituyentes-355151492392667</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/luis_armando_pailapichun_yefi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/susana_jacqueline_rumian_vidal.png</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/butron.ruido?hc_ref=ARSVyrh7MZBh1Yl4T-9mMGks6Z7EJVKqvh6E1HVSPIr7pd62lqKbgkdqXiN6ZORF8w&amp;ref=nf_target</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/eduardo.floresquispe.18</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Marcelo-Centella-tu-futuro-Constituyente-ind%C3%ADgena-1345376181977</t>
+  </si>
+  <si>
+    <t>https://twitter.com/horacio315294</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=154667581896</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Cristofer-Andr%C3%A9s-Castillo-Geronimo-constituyente-Pueblo-Colla-181513481628</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Elenariveraconstituyente221</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/elenariveraconstituyente221/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Solange-Bordones-Ernesto-Alcayaga-Diaguitas-de-cordillera-a-mar-1253378751831</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Red-Nacional-Diaguita-214769355268</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jose.hueicha.75/about</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=1565555879</t>
+  </si>
+  <si>
+    <t>https://twitter.com/janitacarmela4</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Lila-Colamar-Ter%C3%A1n-Constituyente-54519145974974/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Lickau-Oriana-Mora-Rodr%C3%ADguez-Constituyente-11585921185</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/omoraconstituyentelickanantay/?fbclid=IwAR1RVJwNdUIFjzPoLFKVlFqMzkrjlHxvmpeJBnQI1KbCtCqeTCtP9TFJQ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sara.berna5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Natividad-Llanquileo-Constituyente-11645975136/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Galvarino-Reiman-H-Werken-a-Constituyente-132377559258/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Ingrid-Conejeros-Constituyente-13719884967939</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Pedro-Omar-Calbu%C3%B1ir-Pinoleo/11878789892</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/Richard_caifal/?fbclid=IwAR24Nz6vnPXmFgJe_wfgbdglGCBLiXF1Ch584L4MFQtUHiqbFwNs9aBgQI</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jaime-Mariman-Constituyente-1124788742374</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/maribel.varas.98?fref=nf</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yona.1/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Alihuen-Antileo-Constituyente-Mapuche-1115318591121/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=122649141</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/profile.php?id=113484262139</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/people/Jackeline-Rapu-Tuki/112212471226</t>
   </si>
 </sst>
 </file>
@@ -1945,12 +2317,15 @@
   <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L191"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1988,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2030,6 +2405,9 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="E3" t="s">
+        <v>536</v>
+      </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
@@ -2040,7 +2418,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>537</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2052,7 +2430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2081,7 +2459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2148,7 +2526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2171,7 +2549,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>526</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -2183,7 +2561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2196,6 +2574,9 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
+      <c r="E8" t="s">
+        <v>525</v>
+      </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -2215,7 +2596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2244,7 +2625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2254,6 +2635,9 @@
       <c r="C10" t="s">
         <v>39</v>
       </c>
+      <c r="D10" t="s">
+        <v>523</v>
+      </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
@@ -2264,7 +2648,7 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -2276,7 +2660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2308,7 +2692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2321,6 +2705,9 @@
       <c r="D12" t="s">
         <v>45</v>
       </c>
+      <c r="E12" t="s">
+        <v>534</v>
+      </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
@@ -2331,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>535</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -2343,7 +2730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2388,6 +2775,9 @@
       <c r="D14" t="s">
         <v>50</v>
       </c>
+      <c r="E14" t="s">
+        <v>527</v>
+      </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
@@ -2398,7 +2788,7 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>528</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -2410,7 +2800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2453,11 +2843,11 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
+        <v>616</v>
+      </c>
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -2465,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>529</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -2477,7 +2867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2485,10 +2875,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>59</v>
+      <c r="E17" t="s">
+        <v>538</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -2497,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>18</v>
+        <v>539</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -2509,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2517,10 +2910,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>61</v>
+      <c r="E18" t="s">
+        <v>521</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -2529,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>522</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -2541,7 +2937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2549,7 +2945,16 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" t="s">
+        <v>532</v>
+      </c>
+      <c r="F19" t="s">
+        <v>531</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -2558,7 +2963,7 @@
         <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>533</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2570,19 +2975,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2995,7 @@
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>18</v>
+        <v>520</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -2599,21 +3004,24 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" t="s">
-        <v>68</v>
+      <c r="E21" t="s">
+        <v>518</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -2622,7 +3030,7 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>519</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -2631,22 +3039,22 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -2654,7 +3062,7 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>508</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2663,21 +3071,27 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
+      <c r="E23" t="s">
+        <v>510</v>
+      </c>
+      <c r="F23" t="s">
+        <v>509</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -2686,7 +3100,7 @@
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>18</v>
+        <v>511</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -2695,18 +3109,21 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>617</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -2724,18 +3141,18 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -2753,25 +3170,28 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="s">
-        <v>77</v>
-      </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +3199,7 @@
         <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>18</v>
+        <v>502</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -2788,18 +3208,21 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>505</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -2808,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>506</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -2817,18 +3240,21 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>516</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -2846,18 +3272,18 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
@@ -2875,22 +3301,22 @@
         <v>2</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
-        <v>82</v>
-      </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -2898,7 +3324,7 @@
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>18</v>
+        <v>507</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -2907,33 +3333,36 @@
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
         <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" t="s">
-        <v>86</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2942,18 +3371,27 @@
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E32" t="s">
+        <v>514</v>
+      </c>
+      <c r="F32" t="s">
+        <v>513</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
@@ -2962,7 +3400,7 @@
         <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>515</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -2971,18 +3409,21 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>618</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
@@ -2991,7 +3432,7 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>18</v>
+        <v>517</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -3000,30 +3441,36 @@
         <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" t="s">
+        <v>503</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
         <v>90</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
-        <v>91</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -3032,33 +3479,33 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>93</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s">
         <v>94</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" t="s">
-        <v>95</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -3067,36 +3514,36 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>97</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>98</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
         <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" t="s">
-        <v>100</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -3105,21 +3552,21 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
         <v>101</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
@@ -3137,53 +3584,56 @@
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
         <v>103</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>104</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>105</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>540</v>
+      </c>
+      <c r="F38" t="s">
+        <v>619</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
         <v>106</v>
       </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
         <v>107</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" t="s">
-        <v>108</v>
-      </c>
-      <c r="J38" t="s">
-        <v>109</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
         <v>16</v>
@@ -3195,27 +3645,27 @@
         <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>542</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3227,24 +3677,27 @@
         <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>620</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -3253,27 +3706,27 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>18</v>
+        <v>541</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
       </c>
       <c r="G42" t="s">
         <v>25</v>
@@ -3285,24 +3738,24 @@
         <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
         <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
@@ -3314,24 +3767,30 @@
         <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>122</v>
+      <c r="D44" t="s">
+        <v>545</v>
+      </c>
+      <c r="E44" t="s">
+        <v>546</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -3340,27 +3799,27 @@
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>18</v>
+        <v>547</v>
       </c>
       <c r="J44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -3372,24 +3831,27 @@
         <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>124</v>
+      <c r="D46" t="s">
+        <v>621</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -3398,27 +3860,36 @@
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>18</v>
+        <v>551</v>
       </c>
       <c r="J46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>622</v>
+      </c>
+      <c r="E47" t="s">
+        <v>623</v>
+      </c>
+      <c r="F47" t="s">
+        <v>548</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
@@ -3427,59 +3898,62 @@
         <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>18</v>
+        <v>549</v>
       </c>
       <c r="J47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>601</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>18</v>
+        <v>602</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
@@ -3488,30 +3962,30 @@
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
         <v>25</v>
@@ -3520,59 +3994,68 @@
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D51" t="s">
+        <v>603</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>604</v>
       </c>
       <c r="J51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>544</v>
+      </c>
+      <c r="F52" t="s">
+        <v>543</v>
       </c>
       <c r="G52" t="s">
         <v>25</v>
@@ -3581,27 +4064,27 @@
         <v>23</v>
       </c>
       <c r="I52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
@@ -3613,27 +4096,27 @@
         <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G54" t="s">
         <v>25</v>
@@ -3642,27 +4125,30 @@
         <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="E55" t="s">
+        <v>550</v>
       </c>
       <c r="G55" t="s">
         <v>25</v>
@@ -3674,24 +4160,24 @@
         <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
@@ -3703,24 +4189,24 @@
         <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
@@ -3732,24 +4218,24 @@
         <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
@@ -3761,27 +4247,27 @@
         <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
@@ -3790,100 +4276,100 @@
         <v>23</v>
       </c>
       <c r="I59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
         <v>150</v>
       </c>
-      <c r="B60" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" t="s">
-        <v>153</v>
-      </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>624</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+      <c r="F61" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
         <v>154</v>
       </c>
-      <c r="D61" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" t="s">
-        <v>157</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>158</v>
-      </c>
       <c r="J61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
@@ -3892,30 +4378,33 @@
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="D63" t="s">
+        <v>552</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -3924,30 +4413,30 @@
         <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>553</v>
       </c>
       <c r="J63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -3956,27 +4445,27 @@
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3985,30 +4474,30 @@
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>554</v>
       </c>
       <c r="J65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>624</v>
       </c>
       <c r="G66" t="s">
         <v>25</v>
@@ -4017,30 +4506,30 @@
         <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -4049,30 +4538,30 @@
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>625</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -4081,33 +4570,33 @@
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>173</v>
+        <v>625</v>
       </c>
       <c r="E69" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
@@ -4116,27 +4605,33 @@
         <v>23</v>
       </c>
       <c r="I69" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>175</v>
+      </c>
+      <c r="D70" t="s">
+        <v>560</v>
+      </c>
+      <c r="E70" t="s">
+        <v>561</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -4148,24 +4643,24 @@
         <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" t="s">
         <v>178</v>
-      </c>
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>183</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -4177,25 +4672,25 @@
         <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s">
         <v>179</v>
       </c>
-      <c r="C72" t="s">
-        <v>184</v>
-      </c>
       <c r="G72" t="s">
         <v>16</v>
       </c>
@@ -4203,27 +4698,30 @@
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="D73" t="s">
+        <v>626</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -4232,27 +4730,30 @@
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>18</v>
+        <v>557</v>
       </c>
       <c r="J73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" t="s">
-        <v>187</v>
+      <c r="D74" t="s">
+        <v>558</v>
       </c>
       <c r="G74" t="s">
         <v>25</v>
@@ -4261,30 +4762,33 @@
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>18</v>
+        <v>559</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="F75" t="s">
+        <v>555</v>
       </c>
       <c r="G75" t="s">
         <v>25</v>
@@ -4293,33 +4797,36 @@
         <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
+        <v>556</v>
       </c>
       <c r="F76" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G76" t="s">
         <v>25</v>
@@ -4328,33 +4835,33 @@
         <v>23</v>
       </c>
       <c r="I76" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G77" t="s">
         <v>25</v>
@@ -4363,30 +4870,30 @@
         <v>23</v>
       </c>
       <c r="I77" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J77" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
         <v>25</v>
@@ -4395,27 +4902,27 @@
         <v>23</v>
       </c>
       <c r="I78" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J78" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -4424,27 +4931,27 @@
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J79" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -4456,33 +4963,33 @@
         <v>18</v>
       </c>
       <c r="J80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>627</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F81" t="s">
-        <v>209</v>
+        <v>628</v>
       </c>
       <c r="G81" t="s">
         <v>25</v>
@@ -4491,33 +4998,33 @@
         <v>23</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="J81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
         <v>204</v>
       </c>
-      <c r="B82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" t="s">
-        <v>211</v>
-      </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -4526,27 +5033,27 @@
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -4558,30 +5065,30 @@
         <v>18</v>
       </c>
       <c r="J83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -4590,30 +5097,30 @@
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="J84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -4622,30 +5129,30 @@
         <v>23</v>
       </c>
       <c r="I85" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>629</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
@@ -4654,27 +5161,27 @@
         <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -4686,24 +5193,24 @@
         <v>18</v>
       </c>
       <c r="J87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -4715,30 +5222,30 @@
         <v>18</v>
       </c>
       <c r="J88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>229</v>
+        <v>630</v>
       </c>
       <c r="E89" t="s">
-        <v>230</v>
+        <v>631</v>
       </c>
       <c r="G89" t="s">
         <v>25</v>
@@ -4747,36 +5254,36 @@
         <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J89" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D90" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E90" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F90" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G90" t="s">
         <v>25</v>
@@ -4785,36 +5292,36 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E91" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F91" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G91" t="s">
         <v>25</v>
@@ -4823,33 +5330,33 @@
         <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J91" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D92" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="F92" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G92" t="s">
         <v>25</v>
@@ -4858,27 +5365,33 @@
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+      <c r="D93" t="s">
+        <v>632</v>
+      </c>
+      <c r="E93" t="s">
+        <v>562</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4887,27 +5400,27 @@
         <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>18</v>
+        <v>563</v>
       </c>
       <c r="J93" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4916,33 +5429,33 @@
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G95" t="s">
         <v>25</v>
@@ -4951,36 +5464,36 @@
         <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B96" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G96" t="s">
         <v>25</v>
@@ -4989,34 +5502,34 @@
         <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J96" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K96">
         <v>7</v>
       </c>
       <c r="L96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" t="s">
         <v>251</v>
       </c>
-      <c r="B97" t="s">
+      <c r="E97" t="s">
         <v>252</v>
       </c>
-      <c r="C97" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" t="s">
-        <v>261</v>
-      </c>
-      <c r="E97" t="s">
-        <v>262</v>
-      </c>
       <c r="G97" t="s">
         <v>16</v>
       </c>
@@ -5024,30 +5537,30 @@
         <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J97" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K97">
         <v>7</v>
       </c>
       <c r="L97" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -5059,62 +5572,62 @@
         <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K98">
         <v>7</v>
       </c>
       <c r="L98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>251</v>
-      </c>
-      <c r="B99" t="s">
-        <v>252</v>
-      </c>
-      <c r="C99" t="s">
-        <v>266</v>
-      </c>
-      <c r="D99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>268</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" t="s">
-        <v>269</v>
-      </c>
       <c r="J99" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K99">
         <v>7</v>
       </c>
       <c r="L99" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -5123,36 +5636,36 @@
         <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>18</v>
+        <v>571</v>
       </c>
       <c r="J100" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K100">
         <v>7</v>
       </c>
       <c r="L100" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -5161,27 +5674,27 @@
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J101" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K101">
         <v>7</v>
       </c>
       <c r="L101" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
@@ -5193,30 +5706,30 @@
         <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K102">
         <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G103" t="s">
         <v>25</v>
@@ -5225,27 +5738,27 @@
         <v>23</v>
       </c>
       <c r="I103" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J103" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K103">
         <v>7</v>
       </c>
       <c r="L103" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
@@ -5257,33 +5770,33 @@
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K104">
         <v>7</v>
       </c>
       <c r="L104" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>633</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G105" t="s">
         <v>25</v>
@@ -5292,33 +5805,33 @@
         <v>23</v>
       </c>
       <c r="I105" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J105" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K105">
         <v>7</v>
       </c>
       <c r="L105" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G106" t="s">
         <v>25</v>
@@ -5327,30 +5840,30 @@
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>18</v>
+        <v>570</v>
       </c>
       <c r="J106" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K106">
         <v>7</v>
       </c>
       <c r="L106" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D107" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="G107" t="s">
         <v>25</v>
@@ -5359,30 +5872,30 @@
         <v>23</v>
       </c>
       <c r="I107" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="J107" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K107">
         <v>7</v>
       </c>
       <c r="L107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D108" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G108" t="s">
         <v>25</v>
@@ -5391,36 +5904,36 @@
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J108" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K108">
         <v>7</v>
       </c>
       <c r="L108" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E109" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F109" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G109" t="s">
         <v>25</v>
@@ -5429,31 +5942,31 @@
         <v>23</v>
       </c>
       <c r="I109" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J109" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K109">
         <v>7</v>
       </c>
       <c r="L109" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" t="s">
+        <v>293</v>
+      </c>
+      <c r="D110" t="s">
         <v>294</v>
       </c>
-      <c r="C110" t="s">
-        <v>304</v>
-      </c>
-      <c r="D110" t="s">
-        <v>305</v>
-      </c>
       <c r="G110" t="s">
         <v>25</v>
       </c>
@@ -5461,27 +5974,36 @@
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J110" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K110">
         <v>7</v>
       </c>
       <c r="L110" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C111" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="D111" t="s">
+        <v>576</v>
+      </c>
+      <c r="E111" t="s">
+        <v>578</v>
+      </c>
+      <c r="F111" t="s">
+        <v>577</v>
       </c>
       <c r="G111" t="s">
         <v>25</v>
@@ -5490,33 +6012,33 @@
         <v>17</v>
       </c>
       <c r="I111" t="s">
-        <v>18</v>
+        <v>579</v>
       </c>
       <c r="J111" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K111">
         <v>7</v>
       </c>
       <c r="L111" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" t="s">
+        <v>283</v>
+      </c>
+      <c r="C112" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>251</v>
-      </c>
-      <c r="B112" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" t="s">
-        <v>308</v>
-      </c>
-      <c r="D112" t="s">
-        <v>309</v>
-      </c>
       <c r="E112" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
@@ -5525,27 +6047,27 @@
         <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J112" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K112">
         <v>7</v>
       </c>
       <c r="L112" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B113" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
@@ -5557,24 +6079,24 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K113">
         <v>7</v>
       </c>
       <c r="L113" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -5586,27 +6108,27 @@
         <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K114">
         <v>7</v>
       </c>
       <c r="L114" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B115" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C115" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D115" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
@@ -5615,33 +6137,33 @@
         <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="J115" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K115">
         <v>7</v>
       </c>
       <c r="L115" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E116" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G116" t="s">
         <v>25</v>
@@ -5650,27 +6172,27 @@
         <v>23</v>
       </c>
       <c r="I116" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J116" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K116">
         <v>7</v>
       </c>
       <c r="L116" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -5682,30 +6204,30 @@
         <v>18</v>
       </c>
       <c r="J117" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K117">
         <v>7</v>
       </c>
       <c r="L117" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B118" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D118" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E118" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
@@ -5714,33 +6236,33 @@
         <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J118" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K118">
         <v>7</v>
       </c>
       <c r="L118" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B119" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D119" t="s">
-        <v>327</v>
+        <v>634</v>
       </c>
       <c r="E119" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G119" t="s">
         <v>25</v>
@@ -5749,30 +6271,30 @@
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="J119" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K119">
         <v>7</v>
       </c>
       <c r="L119" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C120" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D120" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G120" t="s">
         <v>25</v>
@@ -5781,27 +6303,36 @@
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J120" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K120">
         <v>7</v>
       </c>
       <c r="L120" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B121" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>321</v>
+      </c>
+      <c r="D121" t="s">
+        <v>586</v>
+      </c>
+      <c r="E121" t="s">
+        <v>588</v>
+      </c>
+      <c r="F121" t="s">
+        <v>587</v>
       </c>
       <c r="G121" t="s">
         <v>25</v>
@@ -5810,30 +6341,30 @@
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>18</v>
+        <v>589</v>
       </c>
       <c r="J121" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K121">
         <v>7</v>
       </c>
       <c r="L121" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C122" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E122" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G122" t="s">
         <v>16</v>
@@ -5842,36 +6373,36 @@
         <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>18</v>
+        <v>590</v>
       </c>
       <c r="J122" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K122">
         <v>7</v>
       </c>
       <c r="L122" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D123" t="s">
-        <v>337</v>
+        <v>635</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F123" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G123" t="s">
         <v>25</v>
@@ -5880,27 +6411,27 @@
         <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="J123" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K123">
         <v>7</v>
       </c>
       <c r="L123" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C124" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
@@ -5909,59 +6440,62 @@
         <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>18</v>
+        <v>580</v>
       </c>
       <c r="J124" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K124">
         <v>7</v>
       </c>
       <c r="L124" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B125" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C125" t="s">
-        <v>342</v>
+        <v>329</v>
+      </c>
+      <c r="D125" t="s">
+        <v>608</v>
       </c>
       <c r="G125" t="s">
         <v>16</v>
       </c>
       <c r="H125" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I125" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="J125" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K125">
         <v>7</v>
       </c>
       <c r="L125" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D126" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="G126" t="s">
         <v>25</v>
@@ -5970,33 +6504,33 @@
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="J126" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K126">
         <v>7</v>
       </c>
       <c r="L126" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E127" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G127" t="s">
         <v>16</v>
@@ -6005,30 +6539,33 @@
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J127" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K127">
         <v>7</v>
       </c>
       <c r="L127" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B128" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
-        <v>350</v>
+        <v>337</v>
+      </c>
+      <c r="D128" t="s">
+        <v>581</v>
       </c>
       <c r="E128" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -6037,36 +6574,36 @@
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>18</v>
+        <v>582</v>
       </c>
       <c r="J128" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K128">
         <v>7</v>
       </c>
       <c r="L128" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D129" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="E129" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F129" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G129" t="s">
         <v>25</v>
@@ -6075,27 +6612,27 @@
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="J129" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K129">
         <v>7</v>
       </c>
       <c r="L129" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C130" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
@@ -6107,24 +6644,24 @@
         <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K130">
         <v>7</v>
       </c>
       <c r="L130" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
@@ -6136,24 +6673,24 @@
         <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K131">
         <v>7</v>
       </c>
       <c r="L131" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C132" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G132" t="s">
         <v>16</v>
@@ -6165,30 +6702,30 @@
         <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K132">
         <v>7</v>
       </c>
       <c r="L132" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C133" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D133" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E133" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G133" t="s">
         <v>25</v>
@@ -6197,30 +6734,30 @@
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J133" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K133">
         <v>7</v>
       </c>
       <c r="L133" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C134" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F134" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G134" t="s">
         <v>16</v>
@@ -6229,27 +6766,30 @@
         <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J134" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K134">
         <v>7</v>
       </c>
       <c r="L134" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C135" t="s">
-        <v>367</v>
+        <v>354</v>
+      </c>
+      <c r="D135" t="s">
+        <v>574</v>
       </c>
       <c r="G135" t="s">
         <v>16</v>
@@ -6258,30 +6798,30 @@
         <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>18</v>
+        <v>575</v>
       </c>
       <c r="J135" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K135">
         <v>7</v>
       </c>
       <c r="L135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
-        <v>369</v>
+        <v>636</v>
       </c>
       <c r="G136" t="s">
         <v>25</v>
@@ -6290,27 +6830,33 @@
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="J136" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K136">
         <v>7</v>
       </c>
       <c r="L136" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C137" t="s">
-        <v>371</v>
+        <v>357</v>
+      </c>
+      <c r="D137" t="s">
+        <v>584</v>
+      </c>
+      <c r="E137" t="s">
+        <v>637</v>
       </c>
       <c r="G137" t="s">
         <v>25</v>
@@ -6319,33 +6865,33 @@
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>18</v>
+        <v>585</v>
       </c>
       <c r="J137" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K137">
         <v>7</v>
       </c>
       <c r="L137" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C138" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D138" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E138" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G138" t="s">
         <v>25</v>
@@ -6354,59 +6900,65 @@
         <v>23</v>
       </c>
       <c r="I138" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="J138" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K138">
         <v>7</v>
       </c>
       <c r="L138" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B139" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C139" t="s">
-        <v>376</v>
+        <v>362</v>
+      </c>
+      <c r="D139" t="s">
+        <v>605</v>
+      </c>
+      <c r="F139" t="s">
+        <v>606</v>
       </c>
       <c r="G139" t="s">
         <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>18</v>
+        <v>607</v>
       </c>
       <c r="J139" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K139">
         <v>7</v>
       </c>
       <c r="L139" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B140" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D140" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G140" t="s">
         <v>16</v>
@@ -6415,27 +6967,30 @@
         <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>18</v>
+        <v>583</v>
       </c>
       <c r="J140" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K140">
         <v>7</v>
       </c>
       <c r="L140" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C141" t="s">
-        <v>379</v>
+        <v>365</v>
+      </c>
+      <c r="D141" t="s">
+        <v>572</v>
       </c>
       <c r="G141" t="s">
         <v>16</v>
@@ -6444,36 +6999,36 @@
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>18</v>
+        <v>573</v>
       </c>
       <c r="J141" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K141">
         <v>7</v>
       </c>
       <c r="L141" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B142" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D142" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E142" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F142" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="G142" t="s">
         <v>25</v>
@@ -6482,33 +7037,33 @@
         <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="J142" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K142">
         <v>7</v>
       </c>
       <c r="L142" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C143" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F143" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G143" t="s">
         <v>16</v>
@@ -6517,27 +7072,27 @@
         <v>23</v>
       </c>
       <c r="I143" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J143" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K143">
         <v>7</v>
       </c>
       <c r="L143" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B144" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C144" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G144" t="s">
         <v>16</v>
@@ -6549,56 +7104,56 @@
         <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K144">
         <v>7</v>
       </c>
       <c r="L144" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B145" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C145" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G145" t="s">
         <v>16</v>
       </c>
       <c r="H145" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
       </c>
       <c r="J145" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K145">
         <v>7</v>
       </c>
       <c r="L145" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C146" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D146" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G146" t="s">
         <v>25</v>
@@ -6607,30 +7162,30 @@
         <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J146" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K146">
         <v>7</v>
       </c>
       <c r="L146" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C147" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E147" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
@@ -6639,30 +7194,30 @@
         <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="J147" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K147">
         <v>7</v>
       </c>
       <c r="L147" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B148" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C148" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D148" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G148" t="s">
         <v>25</v>
@@ -6671,56 +7226,65 @@
         <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="J148" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K148">
         <v>7</v>
       </c>
       <c r="L148" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C149" t="s">
-        <v>402</v>
+        <v>388</v>
+      </c>
+      <c r="D149" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" t="s">
+        <v>611</v>
+      </c>
+      <c r="F149" t="s">
+        <v>610</v>
       </c>
       <c r="G149" t="s">
         <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I149" t="s">
-        <v>18</v>
+        <v>612</v>
       </c>
       <c r="J149" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K149">
         <v>7</v>
       </c>
       <c r="L149" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B150" t="s">
+        <v>375</v>
+      </c>
+      <c r="C150" t="s">
         <v>389</v>
-      </c>
-      <c r="C150" t="s">
-        <v>403</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
@@ -6732,56 +7296,59 @@
         <v>18</v>
       </c>
       <c r="J150" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K150">
         <v>7</v>
       </c>
       <c r="L150" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B151" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>404</v>
+        <v>390</v>
+      </c>
+      <c r="D151" t="s">
+        <v>613</v>
       </c>
       <c r="G151" t="s">
         <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I151" t="s">
-        <v>18</v>
+        <v>614</v>
       </c>
       <c r="J151" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K151">
         <v>7</v>
       </c>
       <c r="L151" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+      <c r="B152" t="s">
+        <v>375</v>
+      </c>
+      <c r="C152" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>251</v>
-      </c>
-      <c r="B152" t="s">
-        <v>389</v>
-      </c>
-      <c r="C152" t="s">
-        <v>405</v>
-      </c>
       <c r="D152" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G152" t="s">
         <v>16</v>
@@ -6790,33 +7357,33 @@
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>18</v>
+        <v>595</v>
       </c>
       <c r="J152" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K152">
         <v>7</v>
       </c>
       <c r="L152" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B153" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C153" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D153" t="s">
-        <v>408</v>
+        <v>639</v>
       </c>
       <c r="F153" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
@@ -6825,30 +7392,30 @@
         <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="J153" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K153">
         <v>7</v>
       </c>
       <c r="L153" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B154" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C154" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D154" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G154" t="s">
         <v>25</v>
@@ -6857,30 +7424,33 @@
         <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="J154" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K154">
         <v>7</v>
       </c>
       <c r="L154" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B155" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s">
-        <v>414</v>
+        <v>399</v>
+      </c>
+      <c r="D155" t="s">
+        <v>593</v>
       </c>
       <c r="E155" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G155" t="s">
         <v>25</v>
@@ -6889,62 +7459,65 @@
         <v>23</v>
       </c>
       <c r="I155" t="s">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="J155" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K155">
         <v>7</v>
       </c>
       <c r="L155" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B156" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C156" t="s">
-        <v>416</v>
+        <v>401</v>
+      </c>
+      <c r="D156" t="s">
+        <v>613</v>
       </c>
       <c r="G156" t="s">
         <v>16</v>
       </c>
       <c r="H156" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I156" t="s">
-        <v>18</v>
+        <v>615</v>
       </c>
       <c r="J156" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K156">
         <v>7</v>
       </c>
       <c r="L156" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B157" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D157" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E157" t="s">
-        <v>419</v>
+        <v>640</v>
       </c>
       <c r="G157" t="s">
         <v>25</v>
@@ -6953,27 +7526,27 @@
         <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="J157" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K157">
         <v>7</v>
       </c>
       <c r="L157" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B158" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C158" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="G158" t="s">
         <v>25</v>
@@ -6985,30 +7558,30 @@
         <v>18</v>
       </c>
       <c r="J158" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K158">
         <v>7</v>
       </c>
       <c r="L158" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B159" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C159" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E159" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="G159" t="s">
         <v>16</v>
@@ -7017,36 +7590,36 @@
         <v>17</v>
       </c>
       <c r="I159" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="J159" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K159">
         <v>7</v>
       </c>
       <c r="L159" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C160" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D160" t="s">
-        <v>430</v>
+        <v>641</v>
       </c>
       <c r="E160" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="F160" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G160" t="s">
         <v>25</v>
@@ -7055,33 +7628,33 @@
         <v>17</v>
       </c>
       <c r="I160" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J160" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K160">
         <v>7</v>
       </c>
       <c r="L160" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C161" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D161" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="F161" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G161" t="s">
         <v>16</v>
@@ -7090,36 +7663,36 @@
         <v>17</v>
       </c>
       <c r="I161" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="J161" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K161">
         <v>7</v>
       </c>
       <c r="L161" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B162" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C162" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D162" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E162" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="F162" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="G162" t="s">
         <v>25</v>
@@ -7128,36 +7701,36 @@
         <v>23</v>
       </c>
       <c r="I162" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="J162" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K162">
         <v>7</v>
       </c>
       <c r="L162" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B163" t="s">
+        <v>412</v>
+      </c>
+      <c r="C163" t="s">
+        <v>427</v>
+      </c>
+      <c r="D163" t="s">
         <v>428</v>
       </c>
-      <c r="C163" t="s">
-        <v>444</v>
-      </c>
-      <c r="D163" t="s">
-        <v>445</v>
-      </c>
       <c r="E163" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="F163" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="G163" t="s">
         <v>25</v>
@@ -7166,37 +7739,37 @@
         <v>23</v>
       </c>
       <c r="I163" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="J163" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K163">
         <v>7</v>
       </c>
       <c r="L163" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>241</v>
+      </c>
+      <c r="B164" t="s">
+        <v>412</v>
+      </c>
+      <c r="C164" t="s">
+        <v>432</v>
+      </c>
+      <c r="D164" t="s">
+        <v>642</v>
+      </c>
+      <c r="E164" t="s">
+        <v>433</v>
+      </c>
+      <c r="F164" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>251</v>
-      </c>
-      <c r="B164" t="s">
-        <v>428</v>
-      </c>
-      <c r="C164" t="s">
-        <v>449</v>
-      </c>
-      <c r="D164" t="s">
-        <v>450</v>
-      </c>
-      <c r="E164" t="s">
-        <v>451</v>
-      </c>
-      <c r="F164" t="s">
-        <v>452</v>
-      </c>
       <c r="G164" t="s">
         <v>25</v>
       </c>
@@ -7204,27 +7777,33 @@
         <v>17</v>
       </c>
       <c r="I164" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="J164" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K164">
         <v>7</v>
       </c>
       <c r="L164" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B165" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C165" t="s">
-        <v>454</v>
+        <v>436</v>
+      </c>
+      <c r="D165" t="s">
+        <v>567</v>
+      </c>
+      <c r="F165" t="s">
+        <v>568</v>
       </c>
       <c r="G165" t="s">
         <v>25</v>
@@ -7233,30 +7812,30 @@
         <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>18</v>
+        <v>569</v>
       </c>
       <c r="J165" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K165">
         <v>7</v>
       </c>
       <c r="L165" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B166" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C166" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E166" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="G166" t="s">
         <v>16</v>
@@ -7265,27 +7844,30 @@
         <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>18</v>
+        <v>566</v>
       </c>
       <c r="J166" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K166">
         <v>7</v>
       </c>
       <c r="L166" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C167" t="s">
-        <v>457</v>
+        <v>439</v>
+      </c>
+      <c r="D167" t="s">
+        <v>564</v>
       </c>
       <c r="G167" t="s">
         <v>16</v>
@@ -7297,27 +7879,27 @@
         <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K167">
         <v>7</v>
       </c>
       <c r="L167" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C168" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D168" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G168" t="s">
         <v>16</v>
@@ -7326,33 +7908,33 @@
         <v>17</v>
       </c>
       <c r="I168" t="s">
-        <v>18</v>
+        <v>565</v>
       </c>
       <c r="J168" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K168">
         <v>7</v>
       </c>
       <c r="L168" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B169" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C169" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D169" t="s">
-        <v>461</v>
+        <v>643</v>
       </c>
       <c r="E169" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="G169" t="s">
         <v>16</v>
@@ -7361,27 +7943,27 @@
         <v>17</v>
       </c>
       <c r="I169" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="J169" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K169">
         <v>7</v>
       </c>
       <c r="L169" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B170" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C170" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G170" t="s">
         <v>16</v>
@@ -7393,27 +7975,30 @@
         <v>18</v>
       </c>
       <c r="J170" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K170">
         <v>7</v>
       </c>
       <c r="L170" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B171" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C171" t="s">
-        <v>467</v>
+        <v>448</v>
+      </c>
+      <c r="D171" t="s">
+        <v>591</v>
       </c>
       <c r="E171" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="G171" t="s">
         <v>25</v>
@@ -7422,33 +8007,33 @@
         <v>23</v>
       </c>
       <c r="I171" t="s">
-        <v>18</v>
+        <v>592</v>
       </c>
       <c r="J171" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K171">
         <v>7</v>
       </c>
       <c r="L171" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B172" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C172" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D172" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="E172" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="G172" t="s">
         <v>25</v>
@@ -7457,30 +8042,30 @@
         <v>23</v>
       </c>
       <c r="I172" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="J172" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K172">
         <v>7</v>
       </c>
       <c r="L172" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B173" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="C173" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="D173" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="G173" t="s">
         <v>16</v>
@@ -7492,30 +8077,30 @@
         <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K173">
         <v>7</v>
       </c>
       <c r="L173" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="E174" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F174" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="G174" t="s">
         <v>25</v>
@@ -7524,10 +8109,10 @@
         <v>17</v>
       </c>
       <c r="I174" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="J174" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -7536,15 +8121,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
@@ -7556,7 +8141,7 @@
         <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -7565,15 +8150,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>482</v>
+        <v>463</v>
+      </c>
+      <c r="D176" t="s">
+        <v>596</v>
       </c>
       <c r="G176" t="s">
         <v>16</v>
@@ -7582,10 +8170,10 @@
         <v>23</v>
       </c>
       <c r="I176" t="s">
-        <v>18</v>
+        <v>597</v>
       </c>
       <c r="J176" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -7594,18 +8182,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D177" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="G177" t="s">
         <v>25</v>
@@ -7614,10 +8202,10 @@
         <v>17</v>
       </c>
       <c r="I177" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="J177" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K177">
         <v>1</v>
@@ -7626,15 +8214,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C178" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
@@ -7643,27 +8231,27 @@
         <v>17</v>
       </c>
       <c r="I178" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="J178" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K178">
         <v>1</v>
       </c>
       <c r="L178" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B179" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C179" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="G179" t="s">
         <v>25</v>
@@ -7675,27 +8263,27 @@
         <v>18</v>
       </c>
       <c r="J179" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K179">
         <v>1</v>
       </c>
       <c r="L179" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B180" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C180" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F180" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="G180" t="s">
         <v>25</v>
@@ -7704,27 +8292,27 @@
         <v>23</v>
       </c>
       <c r="I180" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="J180" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K180">
         <v>1</v>
       </c>
       <c r="L180" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="B181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C181" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G181" t="s">
         <v>16</v>
@@ -7736,24 +8324,27 @@
         <v>18</v>
       </c>
       <c r="J181" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="K181">
         <v>1</v>
       </c>
       <c r="L181" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B182" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C182" t="s">
-        <v>495</v>
+        <v>476</v>
+      </c>
+      <c r="D182" t="s">
+        <v>598</v>
       </c>
       <c r="G182" t="s">
         <v>25</v>
@@ -7762,27 +8353,27 @@
         <v>17</v>
       </c>
       <c r="I182" t="s">
-        <v>18</v>
+        <v>599</v>
       </c>
       <c r="J182" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
       <c r="L182" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B183" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C183" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G183" t="s">
         <v>16</v>
@@ -7794,24 +8385,27 @@
         <v>18</v>
       </c>
       <c r="J183" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
       <c r="L183" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B184" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C184" t="s">
-        <v>499</v>
+        <v>480</v>
+      </c>
+      <c r="D184" t="s">
+        <v>644</v>
       </c>
       <c r="G184" t="s">
         <v>16</v>
@@ -7820,33 +8414,33 @@
         <v>23</v>
       </c>
       <c r="I184" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="J184" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
       <c r="L184" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B185" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C185" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D185" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="E185" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="G185" t="s">
         <v>25</v>
@@ -7855,36 +8449,36 @@
         <v>17</v>
       </c>
       <c r="I185" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="J185" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K185">
         <v>1</v>
       </c>
       <c r="L185" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B186" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C186" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="D186" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="E186" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F186" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="G186" t="s">
         <v>25</v>
@@ -7893,27 +8487,27 @@
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="J186" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K186">
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B187" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C187" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="G187" t="s">
         <v>16</v>
@@ -7925,56 +8519,56 @@
         <v>18</v>
       </c>
       <c r="J187" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K187">
         <v>1</v>
       </c>
       <c r="L187" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>474</v>
+      </c>
+      <c r="B188" t="s">
+        <v>475</v>
+      </c>
+      <c r="C188" t="s">
+        <v>492</v>
+      </c>
+      <c r="D188" t="s">
         <v>493</v>
       </c>
-      <c r="B188" t="s">
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" t="s">
         <v>494</v>
       </c>
-      <c r="C188" t="s">
-        <v>511</v>
-      </c>
-      <c r="D188" t="s">
-        <v>512</v>
-      </c>
-      <c r="G188" t="s">
-        <v>25</v>
-      </c>
-      <c r="H188" t="s">
-        <v>23</v>
-      </c>
-      <c r="I188" t="s">
-        <v>513</v>
-      </c>
       <c r="J188" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K188">
         <v>1</v>
       </c>
       <c r="L188" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="B189" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C189" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
@@ -7986,24 +8580,27 @@
         <v>18</v>
       </c>
       <c r="J189" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K189">
         <v>1</v>
       </c>
       <c r="L189" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>496</v>
+      </c>
+      <c r="B190" t="s">
+        <v>174</v>
+      </c>
+      <c r="C190" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>515</v>
-      </c>
-      <c r="B190" t="s">
-        <v>179</v>
-      </c>
-      <c r="C190" t="s">
-        <v>516</v>
+      <c r="D190" t="s">
+        <v>600</v>
       </c>
       <c r="G190" t="s">
         <v>25</v>
@@ -8012,27 +8609,27 @@
         <v>23</v>
       </c>
       <c r="I190" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="J190" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K190">
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="B191" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C191" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G191" t="s">
         <v>16</v>
@@ -8044,13 +8641,13 @@
         <v>18</v>
       </c>
       <c r="J191" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K191">
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Elecciones 11 Abril 2021/candidaturas ligth/Constituyentes PI 31 marzo.xlsx
+++ b/Elecciones 11 Abril 2021/candidaturas ligth/Constituyentes PI 31 marzo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ELECCIONES\Elecciones 11 Abril 2021\candidaturas ligth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Elecciones 11 Abril 2021\candidaturas ligth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC52F6-74E7-46FF-A5FB-54A779C74AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111DE9D3-80E4-4FE6-9537-41E6BCB0B705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6CCDE4BB-7F3F-427A-A158-235B9EEC68C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6CCDE4BB-7F3F-427A-A158-235B9EEC68C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="643">
   <si>
     <t>Pueblo</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Eliana Esmeralda Monardez Diaz</t>
   </si>
   <si>
-    <t>Femenino</t>
-  </si>
-  <si>
     <t>Francisco Javier Cortes Godoy</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>Heriberto Evaristo Monardez Diaz</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
     <t>Isabel Selena Godoy Monardez</t>
   </si>
   <si>
@@ -879,9 +873,6 @@
     <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Elecciones%2011%20Abril%202021/FotoConstituyentePI/veronica_maria_levi_quipainan.png</t>
   </si>
   <si>
-    <t>La Araucanía</t>
-  </si>
-  <si>
     <t>Adan Nivaldo Romero Cheuquepil</t>
   </si>
   <si>
@@ -1963,6 +1954,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/people/Jackeline-Rapu-Tuki/112212471226</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
   </si>
 </sst>
 </file>
@@ -2316,16 +2310,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671547DF-B8A7-453E-9737-861099C6217F}">
   <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B97" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2363,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2395,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2406,7 +2401,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -2418,7 +2413,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2430,7 +2425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +2454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2497,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2526,7 +2521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2549,7 +2544,7 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -2561,7 +2556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2575,7 +2570,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -2596,7 +2591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +2620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2636,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -2648,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -2660,7 +2655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2692,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2706,7 +2701,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -2718,7 +2713,7 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -2730,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2776,7 +2771,7 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -2788,7 +2783,7 @@
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -2800,7 +2795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2832,7 +2827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +2838,7 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -2855,7 +2850,7 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -2867,7 +2862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -2890,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -2902,7 +2897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -2925,7 +2920,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -2937,7 +2932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2948,22 +2943,22 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
+        <v>527</v>
+      </c>
+      <c r="E19" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" t="s">
+        <v>528</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
         <v>530</v>
-      </c>
-      <c r="E19" t="s">
-        <v>532</v>
-      </c>
-      <c r="F19" t="s">
-        <v>531</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
-        <v>533</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -2975,7 +2970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -3007,7 +3002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +3016,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -3030,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -3042,7 +3037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3062,7 +3057,7 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -3074,7 +3069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3088,10 +3083,10 @@
         <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
@@ -3100,7 +3095,7 @@
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -3112,7 +3107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3123,7 +3118,7 @@
         <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -3144,7 +3139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3173,7 +3168,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F26" t="s">
         <v>76</v>
@@ -3199,7 +3194,7 @@
         <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -3211,7 +3206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
@@ -3231,7 +3226,7 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -3243,7 +3238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -3275,7 +3270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3304,7 +3299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3324,7 +3319,7 @@
         <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -3336,7 +3331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3350,7 +3345,7 @@
         <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F31" t="s">
         <v>84</v>
@@ -3374,7 +3369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3385,22 +3380,22 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
+        <v>509</v>
+      </c>
+      <c r="E32" t="s">
+        <v>511</v>
+      </c>
+      <c r="F32" t="s">
+        <v>510</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
         <v>512</v>
-      </c>
-      <c r="E32" t="s">
-        <v>514</v>
-      </c>
-      <c r="F32" t="s">
-        <v>513</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>515</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -3412,7 +3407,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
@@ -3432,7 +3427,7 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -3444,7 +3439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3458,10 +3453,10 @@
         <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
@@ -3482,7 +3477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3517,7 +3512,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3555,7 +3550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -3601,10 +3596,10 @@
         <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
@@ -3625,7 +3620,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3654,7 +3649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -3665,7 +3660,7 @@
         <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -3686,7 +3681,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -3697,7 +3692,7 @@
         <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
@@ -3706,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J41" t="s">
         <v>107</v>
@@ -3718,7 +3713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -3747,7 +3742,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -3776,7 +3771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -3787,10 +3782,10 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E44" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
@@ -3799,7 +3794,7 @@
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J44" t="s">
         <v>107</v>
@@ -3811,7 +3806,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -3860,7 +3855,7 @@
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J46" t="s">
         <v>107</v>
@@ -3872,7 +3867,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -3883,13 +3878,13 @@
         <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E47" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
@@ -3898,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="I47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J47" t="s">
         <v>107</v>
@@ -3910,7 +3905,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -3921,16 +3916,16 @@
         <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J48" t="s">
         <v>107</v>
@@ -3942,7 +3937,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -3950,19 +3945,19 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
         <v>125</v>
       </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
         <v>126</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" t="s">
-        <v>127</v>
       </c>
       <c r="J49" t="s">
         <v>107</v>
@@ -3974,7 +3969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -3982,19 +3977,19 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
         <v>129</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" t="s">
-        <v>130</v>
       </c>
       <c r="J50" t="s">
         <v>107</v>
@@ -4006,7 +4001,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -4014,19 +4009,19 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J51" t="s">
         <v>107</v>
@@ -4038,7 +4033,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>118</v>
       </c>
@@ -4046,25 +4041,25 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>541</v>
+      </c>
+      <c r="F52" t="s">
+        <v>540</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
         <v>133</v>
-      </c>
-      <c r="D52" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" t="s">
-        <v>544</v>
-      </c>
-      <c r="F52" t="s">
-        <v>543</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" t="s">
-        <v>135</v>
       </c>
       <c r="J52" t="s">
         <v>107</v>
@@ -4076,7 +4071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -4084,7 +4079,7 @@
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
@@ -4105,7 +4100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -4113,19 +4108,19 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
         <v>137</v>
-      </c>
-      <c r="D54" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" t="s">
-        <v>139</v>
       </c>
       <c r="J54" t="s">
         <v>107</v>
@@ -4137,7 +4132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>118</v>
       </c>
@@ -4145,10 +4140,10 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G55" t="s">
         <v>25</v>
@@ -4169,7 +4164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -4177,7 +4172,7 @@
         <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
@@ -4198,7 +4193,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -4206,7 +4201,7 @@
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
@@ -4227,7 +4222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -4235,7 +4230,7 @@
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
@@ -4256,7 +4251,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -4264,19 +4259,19 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
         <v>144</v>
-      </c>
-      <c r="D59" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" t="s">
-        <v>146</v>
       </c>
       <c r="J59" t="s">
         <v>107</v>
@@ -4288,27 +4283,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
         <v>110</v>
       </c>
       <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" t="s">
         <v>148</v>
-      </c>
-      <c r="D60" t="s">
-        <v>149</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s">
-        <v>23</v>
-      </c>
-      <c r="I60" t="s">
-        <v>150</v>
       </c>
       <c r="J60" t="s">
         <v>107</v>
@@ -4320,33 +4315,33 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
       </c>
       <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
+        <v>621</v>
+      </c>
+      <c r="E61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" t="s">
         <v>151</v>
       </c>
-      <c r="D61" t="s">
-        <v>624</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
         <v>152</v>
-      </c>
-      <c r="F61" t="s">
-        <v>153</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" t="s">
-        <v>154</v>
       </c>
       <c r="J61" t="s">
         <v>107</v>
@@ -4358,27 +4353,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
         <v>155</v>
-      </c>
-      <c r="D62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" t="s">
-        <v>157</v>
       </c>
       <c r="J62" t="s">
         <v>107</v>
@@ -4390,21 +4385,21 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -4413,7 +4408,7 @@
         <v>23</v>
       </c>
       <c r="I63" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
         <v>107</v>
@@ -4425,27 +4420,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
         <v>110</v>
       </c>
       <c r="C64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
         <v>160</v>
-      </c>
-      <c r="D64" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s">
-        <v>162</v>
       </c>
       <c r="J64" t="s">
         <v>107</v>
@@ -4457,15 +4452,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" t="s">
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -4474,7 +4469,7 @@
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J65" t="s">
         <v>107</v>
@@ -4486,18 +4481,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D66" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G66" t="s">
         <v>25</v>
@@ -4506,7 +4501,7 @@
         <v>23</v>
       </c>
       <c r="I66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J66" t="s">
         <v>107</v>
@@ -4518,18 +4513,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" t="s">
         <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
@@ -4538,7 +4533,7 @@
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J67" t="s">
         <v>107</v>
@@ -4550,18 +4545,18 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
         <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -4570,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J68" t="s">
         <v>107</v>
@@ -4582,30 +4577,30 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
         <v>114</v>
       </c>
       <c r="C69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" t="s">
+        <v>622</v>
+      </c>
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I69" t="s">
         <v>170</v>
-      </c>
-      <c r="D69" t="s">
-        <v>625</v>
-      </c>
-      <c r="E69" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69" t="s">
-        <v>172</v>
       </c>
       <c r="J69" t="s">
         <v>107</v>
@@ -4617,21 +4612,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" t="s">
         <v>173</v>
       </c>
-      <c r="B70" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" t="s">
-        <v>175</v>
-      </c>
       <c r="D70" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E70" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -4643,24 +4638,24 @@
         <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -4672,286 +4667,286 @@
         <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>178</v>
+      </c>
+      <c r="J72" t="s">
         <v>174</v>
-      </c>
-      <c r="C72" t="s">
-        <v>179</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I72" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" t="s">
-        <v>176</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>623</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s">
+        <v>554</v>
+      </c>
+      <c r="J73" t="s">
         <v>174</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" t="s">
-        <v>626</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>17</v>
-      </c>
-      <c r="I73" t="s">
-        <v>557</v>
-      </c>
-      <c r="J73" t="s">
-        <v>176</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>555</v>
+      </c>
+      <c r="G74" t="s">
+        <v>25</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>556</v>
+      </c>
+      <c r="J74" t="s">
         <v>174</v>
-      </c>
-      <c r="C74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" t="s">
-        <v>558</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" t="s">
-        <v>17</v>
-      </c>
-      <c r="I74" t="s">
-        <v>559</v>
-      </c>
-      <c r="J74" t="s">
-        <v>176</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s">
+        <v>183</v>
+      </c>
+      <c r="J75" t="s">
         <v>174</v>
-      </c>
-      <c r="C75" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" t="s">
-        <v>555</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" t="s">
-        <v>185</v>
-      </c>
-      <c r="J75" t="s">
-        <v>176</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" t="s">
+        <v>553</v>
+      </c>
+      <c r="F76" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" t="s">
+        <v>25</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76" t="s">
         <v>174</v>
-      </c>
-      <c r="C76" t="s">
-        <v>186</v>
-      </c>
-      <c r="D76" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" t="s">
-        <v>556</v>
-      </c>
-      <c r="F76" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76" t="s">
-        <v>189</v>
-      </c>
-      <c r="J76" t="s">
-        <v>176</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>191</v>
+      </c>
+      <c r="J77" t="s">
         <v>174</v>
-      </c>
-      <c r="C77" t="s">
-        <v>190</v>
-      </c>
-      <c r="D77" t="s">
-        <v>191</v>
-      </c>
-      <c r="E77" t="s">
-        <v>192</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
-      <c r="I77" t="s">
-        <v>193</v>
-      </c>
-      <c r="J77" t="s">
-        <v>176</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>194</v>
+      </c>
+      <c r="J78" t="s">
         <v>174</v>
-      </c>
-      <c r="C78" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" t="s">
-        <v>196</v>
-      </c>
-      <c r="J78" t="s">
-        <v>176</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>196</v>
+      </c>
+      <c r="J79" t="s">
         <v>174</v>
-      </c>
-      <c r="C79" t="s">
-        <v>197</v>
-      </c>
-      <c r="G79" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" t="s">
-        <v>17</v>
-      </c>
-      <c r="I79" t="s">
-        <v>198</v>
-      </c>
-      <c r="J79" t="s">
-        <v>176</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
         <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -4972,33 +4967,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s">
         <v>103</v>
       </c>
       <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
+        <v>624</v>
+      </c>
+      <c r="E81" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" t="s">
+        <v>625</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s">
         <v>201</v>
-      </c>
-      <c r="D81" t="s">
-        <v>627</v>
-      </c>
-      <c r="E81" t="s">
-        <v>202</v>
-      </c>
-      <c r="F81" t="s">
-        <v>628</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" t="s">
-        <v>23</v>
-      </c>
-      <c r="I81" t="s">
-        <v>203</v>
       </c>
       <c r="J81" t="s">
         <v>107</v>
@@ -5010,30 +5005,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B82" t="s">
         <v>103</v>
       </c>
       <c r="C82" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" t="s">
         <v>204</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
         <v>205</v>
-      </c>
-      <c r="E82" t="s">
-        <v>206</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
-      <c r="H82" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" t="s">
-        <v>207</v>
       </c>
       <c r="J82" t="s">
         <v>107</v>
@@ -5045,15 +5040,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
         <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -5074,30 +5069,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
         <v>103</v>
       </c>
       <c r="C84" t="s">
+        <v>207</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" t="s">
         <v>209</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
         <v>210</v>
-      </c>
-      <c r="E84" t="s">
-        <v>211</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" t="s">
-        <v>212</v>
       </c>
       <c r="J84" t="s">
         <v>107</v>
@@ -5109,27 +5104,27 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
         <v>103</v>
       </c>
       <c r="C85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s">
         <v>213</v>
-      </c>
-      <c r="D85" t="s">
-        <v>214</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>23</v>
-      </c>
-      <c r="I85" t="s">
-        <v>215</v>
       </c>
       <c r="J85" t="s">
         <v>107</v>
@@ -5141,18 +5136,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
         <v>103</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D86" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
@@ -5161,7 +5156,7 @@
         <v>23</v>
       </c>
       <c r="I86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J86" t="s">
         <v>107</v>
@@ -5173,15 +5168,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -5202,15 +5197,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -5231,21 +5226,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
         <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E89" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G89" t="s">
         <v>25</v>
@@ -5254,7 +5249,7 @@
         <v>23</v>
       </c>
       <c r="I89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J89" t="s">
         <v>107</v>
@@ -5266,33 +5261,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
         <v>103</v>
       </c>
       <c r="C90" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" t="s">
+        <v>221</v>
+      </c>
+      <c r="E90" t="s">
         <v>222</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>223</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
         <v>224</v>
-      </c>
-      <c r="F90" t="s">
-        <v>225</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" t="s">
-        <v>226</v>
       </c>
       <c r="J90" t="s">
         <v>107</v>
@@ -5304,33 +5299,33 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
         <v>103</v>
       </c>
       <c r="C91" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" t="s">
+        <v>226</v>
+      </c>
+      <c r="E91" t="s">
         <v>227</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>228</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
         <v>229</v>
-      </c>
-      <c r="F91" t="s">
-        <v>230</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" t="s">
-        <v>231</v>
       </c>
       <c r="J91" t="s">
         <v>107</v>
@@ -5342,30 +5337,30 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
       </c>
       <c r="C92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92" t="s">
+        <v>231</v>
+      </c>
+      <c r="F92" t="s">
         <v>232</v>
       </c>
-      <c r="D92" t="s">
+      <c r="G92" t="s">
+        <v>25</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
         <v>233</v>
-      </c>
-      <c r="F92" t="s">
-        <v>234</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
-      <c r="H92" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" t="s">
-        <v>235</v>
       </c>
       <c r="J92" t="s">
         <v>107</v>
@@ -5377,21 +5372,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
         <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D93" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E93" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -5400,7 +5395,7 @@
         <v>23</v>
       </c>
       <c r="I93" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J93" t="s">
         <v>107</v>
@@ -5412,15 +5407,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B94" t="s">
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -5429,7 +5424,7 @@
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J94" t="s">
         <v>107</v>
@@ -5441,21 +5436,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G95" t="s">
         <v>25</v>
@@ -5464,7 +5459,7 @@
         <v>23</v>
       </c>
       <c r="I95" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J95" t="s">
         <v>107</v>
@@ -5476,91 +5471,91 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" t="s">
         <v>241</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>242</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>243</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>244</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
         <v>245</v>
       </c>
-      <c r="F96" t="s">
+      <c r="J96" t="s">
         <v>246</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" t="s">
-        <v>247</v>
-      </c>
-      <c r="J96" t="s">
-        <v>248</v>
       </c>
       <c r="K96">
         <v>7</v>
       </c>
       <c r="L96" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>241</v>
-      </c>
-      <c r="B97" t="s">
-        <v>242</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>250</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
         <v>251</v>
       </c>
-      <c r="E97" t="s">
-        <v>252</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" t="s">
-        <v>17</v>
-      </c>
-      <c r="I97" t="s">
-        <v>253</v>
-      </c>
       <c r="J97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K97">
         <v>7</v>
       </c>
       <c r="L97" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -5572,62 +5567,62 @@
         <v>18</v>
       </c>
       <c r="J98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K98">
         <v>7</v>
       </c>
       <c r="L98" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" t="s">
         <v>256</v>
       </c>
-      <c r="D99" t="s">
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
         <v>257</v>
       </c>
-      <c r="E99" t="s">
-        <v>258</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s">
-        <v>17</v>
-      </c>
-      <c r="I99" t="s">
-        <v>259</v>
-      </c>
       <c r="J99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K99">
         <v>7</v>
       </c>
       <c r="L99" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -5636,65 +5631,65 @@
         <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J100" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K100">
         <v>7</v>
       </c>
       <c r="L100" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" t="s">
         <v>262</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>263</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
         <v>264</v>
       </c>
-      <c r="F101" t="s">
-        <v>265</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" t="s">
-        <v>266</v>
-      </c>
       <c r="J101" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K101">
         <v>7</v>
       </c>
       <c r="L101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
@@ -5706,59 +5701,59 @@
         <v>18</v>
       </c>
       <c r="J102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K102">
         <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" t="s">
         <v>268</v>
       </c>
-      <c r="D103" t="s">
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" t="s">
         <v>269</v>
       </c>
-      <c r="E103" t="s">
-        <v>270</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="s">
-        <v>23</v>
-      </c>
-      <c r="I103" t="s">
-        <v>271</v>
-      </c>
       <c r="J103" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K103">
         <v>7</v>
       </c>
       <c r="L103" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
@@ -5770,69 +5765,69 @@
         <v>18</v>
       </c>
       <c r="J104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K104">
         <v>7</v>
       </c>
       <c r="L104" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" t="s">
+        <v>630</v>
+      </c>
+      <c r="E105" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" t="s">
         <v>273</v>
       </c>
-      <c r="D105" t="s">
-        <v>633</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" t="s">
         <v>274</v>
       </c>
-      <c r="F105" t="s">
-        <v>275</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" t="s">
-        <v>23</v>
-      </c>
-      <c r="I105" t="s">
-        <v>276</v>
-      </c>
       <c r="J105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K105">
         <v>7</v>
       </c>
       <c r="L105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" t="s">
         <v>277</v>
       </c>
-      <c r="D106" t="s">
-        <v>278</v>
-      </c>
-      <c r="E106" t="s">
-        <v>279</v>
-      </c>
       <c r="G106" t="s">
         <v>25</v>
       </c>
@@ -5840,132 +5835,132 @@
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J106" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K106">
         <v>7</v>
       </c>
       <c r="L106" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C107" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
+      </c>
+      <c r="G107" t="s">
+        <v>25</v>
+      </c>
+      <c r="H107" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" t="s">
         <v>280</v>
       </c>
-      <c r="D107" t="s">
-        <v>281</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" t="s">
-        <v>282</v>
-      </c>
       <c r="J107" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K107">
         <v>7</v>
       </c>
       <c r="L107" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s">
+        <v>642</v>
+      </c>
+      <c r="C108" t="s">
+        <v>281</v>
+      </c>
+      <c r="D108" t="s">
+        <v>282</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s">
         <v>283</v>
       </c>
-      <c r="C108" t="s">
-        <v>284</v>
-      </c>
-      <c r="D108" t="s">
-        <v>285</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" t="s">
-        <v>286</v>
-      </c>
       <c r="J108" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K108">
         <v>7</v>
       </c>
       <c r="L108" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" t="s">
+        <v>642</v>
+      </c>
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" t="s">
+        <v>286</v>
+      </c>
+      <c r="E109" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>241</v>
-      </c>
-      <c r="B109" t="s">
-        <v>283</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="F109" t="s">
         <v>288</v>
       </c>
-      <c r="D109" t="s">
+      <c r="G109" t="s">
+        <v>25</v>
+      </c>
+      <c r="H109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s">
         <v>289</v>
       </c>
-      <c r="E109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F109" t="s">
-        <v>291</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="H109" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" t="s">
-        <v>292</v>
-      </c>
       <c r="J109" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K109">
         <v>7</v>
       </c>
       <c r="L109" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C110" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G110" t="s">
         <v>25</v>
@@ -5974,100 +5969,100 @@
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K110">
         <v>7</v>
       </c>
       <c r="L110" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B111" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C111" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D111" t="s">
+        <v>573</v>
+      </c>
+      <c r="E111" t="s">
+        <v>575</v>
+      </c>
+      <c r="F111" t="s">
+        <v>574</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H111" t="s">
+        <v>17</v>
+      </c>
+      <c r="I111" t="s">
         <v>576</v>
       </c>
-      <c r="E111" t="s">
-        <v>578</v>
-      </c>
-      <c r="F111" t="s">
-        <v>577</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" t="s">
-        <v>17</v>
-      </c>
-      <c r="I111" t="s">
-        <v>579</v>
-      </c>
       <c r="J111" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K111">
         <v>7</v>
       </c>
       <c r="L111" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D112" t="s">
+        <v>295</v>
+      </c>
+      <c r="E112" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s">
+        <v>17</v>
+      </c>
+      <c r="I112" t="s">
         <v>297</v>
       </c>
-      <c r="D112" t="s">
-        <v>298</v>
-      </c>
-      <c r="E112" t="s">
-        <v>299</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" t="s">
-        <v>17</v>
-      </c>
-      <c r="I112" t="s">
-        <v>300</v>
-      </c>
       <c r="J112" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K112">
         <v>7</v>
       </c>
       <c r="L112" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
@@ -6079,24 +6074,24 @@
         <v>18</v>
       </c>
       <c r="J113" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K113">
         <v>7</v>
       </c>
       <c r="L113" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
@@ -6108,27 +6103,27 @@
         <v>18</v>
       </c>
       <c r="J114" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K114">
         <v>7</v>
       </c>
       <c r="L114" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D115" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
@@ -6137,62 +6132,62 @@
         <v>23</v>
       </c>
       <c r="I115" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K115">
         <v>7</v>
       </c>
       <c r="L115" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C116" t="s">
+        <v>303</v>
+      </c>
+      <c r="D116" t="s">
+        <v>304</v>
+      </c>
+      <c r="E116" t="s">
+        <v>305</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
         <v>306</v>
       </c>
-      <c r="D116" t="s">
-        <v>307</v>
-      </c>
-      <c r="E116" t="s">
-        <v>308</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" t="s">
-        <v>23</v>
-      </c>
-      <c r="I116" t="s">
-        <v>309</v>
-      </c>
       <c r="J116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K116">
         <v>7</v>
       </c>
       <c r="L116" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -6204,65 +6199,65 @@
         <v>18</v>
       </c>
       <c r="J117" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K117">
         <v>7</v>
       </c>
       <c r="L117" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B118" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" t="s">
+        <v>309</v>
+      </c>
+      <c r="E118" t="s">
+        <v>310</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" t="s">
         <v>311</v>
       </c>
-      <c r="D118" t="s">
-        <v>312</v>
-      </c>
-      <c r="E118" t="s">
-        <v>313</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" t="s">
-        <v>23</v>
-      </c>
-      <c r="I118" t="s">
-        <v>314</v>
-      </c>
       <c r="J118" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K118">
         <v>7</v>
       </c>
       <c r="L118" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C119" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D119" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G119" t="s">
         <v>25</v>
@@ -6271,30 +6266,30 @@
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K119">
         <v>7</v>
       </c>
       <c r="L119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C120" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D120" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G120" t="s">
         <v>25</v>
@@ -6303,68 +6298,68 @@
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J120" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K120">
         <v>7</v>
       </c>
       <c r="L120" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C121" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D121" t="s">
+        <v>583</v>
+      </c>
+      <c r="E121" t="s">
+        <v>585</v>
+      </c>
+      <c r="F121" t="s">
+        <v>584</v>
+      </c>
+      <c r="G121" t="s">
+        <v>25</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s">
         <v>586</v>
       </c>
-      <c r="E121" t="s">
-        <v>588</v>
-      </c>
-      <c r="F121" t="s">
-        <v>587</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
-      <c r="H121" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" t="s">
-        <v>589</v>
-      </c>
       <c r="J121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K121">
         <v>7</v>
       </c>
       <c r="L121" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C122" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E122" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G122" t="s">
         <v>16</v>
@@ -6373,65 +6368,65 @@
         <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K122">
         <v>7</v>
       </c>
       <c r="L122" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C123" t="s">
+        <v>321</v>
+      </c>
+      <c r="D123" t="s">
+        <v>632</v>
+      </c>
+      <c r="E123" t="s">
+        <v>322</v>
+      </c>
+      <c r="F123" t="s">
+        <v>323</v>
+      </c>
+      <c r="G123" t="s">
+        <v>25</v>
+      </c>
+      <c r="H123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s">
         <v>324</v>
       </c>
-      <c r="D123" t="s">
-        <v>635</v>
-      </c>
-      <c r="E123" t="s">
-        <v>325</v>
-      </c>
-      <c r="F123" t="s">
-        <v>326</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
-      <c r="H123" t="s">
-        <v>23</v>
-      </c>
-      <c r="I123" t="s">
-        <v>327</v>
-      </c>
       <c r="J123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K123">
         <v>7</v>
       </c>
       <c r="L123" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
@@ -6440,62 +6435,62 @@
         <v>23</v>
       </c>
       <c r="I124" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K124">
         <v>7</v>
       </c>
       <c r="L124" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D125" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G125" t="s">
         <v>16</v>
       </c>
       <c r="H125" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K125">
         <v>7</v>
       </c>
       <c r="L125" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C126" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D126" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G126" t="s">
         <v>25</v>
@@ -6504,68 +6499,68 @@
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K126">
         <v>7</v>
       </c>
       <c r="L126" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C127" t="s">
+        <v>330</v>
+      </c>
+      <c r="D127" t="s">
+        <v>331</v>
+      </c>
+      <c r="E127" t="s">
+        <v>332</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s">
         <v>333</v>
       </c>
-      <c r="D127" t="s">
-        <v>334</v>
-      </c>
-      <c r="E127" t="s">
-        <v>335</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" t="s">
-        <v>17</v>
-      </c>
-      <c r="I127" t="s">
-        <v>336</v>
-      </c>
       <c r="J127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K127">
         <v>7</v>
       </c>
       <c r="L127" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C128" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E128" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -6574,65 +6569,65 @@
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K128">
         <v>7</v>
       </c>
       <c r="L128" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C129" t="s">
+        <v>336</v>
+      </c>
+      <c r="D129" t="s">
+        <v>337</v>
+      </c>
+      <c r="E129" t="s">
+        <v>338</v>
+      </c>
+      <c r="F129" t="s">
         <v>339</v>
       </c>
-      <c r="D129" t="s">
+      <c r="G129" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
         <v>340</v>
       </c>
-      <c r="E129" t="s">
-        <v>341</v>
-      </c>
-      <c r="F129" t="s">
-        <v>342</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
-      <c r="H129" t="s">
-        <v>17</v>
-      </c>
-      <c r="I129" t="s">
-        <v>343</v>
-      </c>
       <c r="J129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K129">
         <v>7</v>
       </c>
       <c r="L129" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C130" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
@@ -6644,24 +6639,24 @@
         <v>18</v>
       </c>
       <c r="J130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K130">
         <v>7</v>
       </c>
       <c r="L130" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B131" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C131" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G131" t="s">
         <v>16</v>
@@ -6673,24 +6668,24 @@
         <v>18</v>
       </c>
       <c r="J131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K131">
         <v>7</v>
       </c>
       <c r="L131" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C132" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G132" t="s">
         <v>16</v>
@@ -6702,62 +6697,62 @@
         <v>18</v>
       </c>
       <c r="J132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K132">
         <v>7</v>
       </c>
       <c r="L132" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C133" t="s">
+        <v>344</v>
+      </c>
+      <c r="D133" t="s">
+        <v>345</v>
+      </c>
+      <c r="E133" t="s">
+        <v>346</v>
+      </c>
+      <c r="G133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s">
         <v>347</v>
       </c>
-      <c r="D133" t="s">
-        <v>348</v>
-      </c>
-      <c r="E133" t="s">
-        <v>349</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
-      <c r="H133" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" t="s">
-        <v>350</v>
-      </c>
       <c r="J133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K133">
         <v>7</v>
       </c>
       <c r="L133" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C134" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F134" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G134" t="s">
         <v>16</v>
@@ -6766,30 +6761,30 @@
         <v>23</v>
       </c>
       <c r="I134" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K134">
         <v>7</v>
       </c>
       <c r="L134" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D135" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G135" t="s">
         <v>16</v>
@@ -6798,30 +6793,30 @@
         <v>23</v>
       </c>
       <c r="I135" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J135" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K135">
         <v>7</v>
       </c>
       <c r="L135" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C136" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G136" t="s">
         <v>25</v>
@@ -6830,33 +6825,33 @@
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J136" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K136">
         <v>7</v>
       </c>
       <c r="L136" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C137" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D137" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E137" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G137" t="s">
         <v>25</v>
@@ -6865,100 +6860,100 @@
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="J137" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K137">
         <v>7</v>
       </c>
       <c r="L137" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B138" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C138" t="s">
+        <v>355</v>
+      </c>
+      <c r="D138" t="s">
+        <v>356</v>
+      </c>
+      <c r="E138" t="s">
+        <v>357</v>
+      </c>
+      <c r="G138" t="s">
+        <v>25</v>
+      </c>
+      <c r="H138" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138" t="s">
         <v>358</v>
       </c>
-      <c r="D138" t="s">
-        <v>359</v>
-      </c>
-      <c r="E138" t="s">
-        <v>360</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
-      <c r="H138" t="s">
-        <v>23</v>
-      </c>
-      <c r="I138" t="s">
-        <v>361</v>
-      </c>
       <c r="J138" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K138">
         <v>7</v>
       </c>
       <c r="L138" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B139" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C139" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D139" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F139" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G139" t="s">
         <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I139" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K139">
         <v>7</v>
       </c>
       <c r="L139" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B140" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C140" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D140" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G140" t="s">
         <v>16</v>
@@ -6967,30 +6962,30 @@
         <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="J140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K140">
         <v>7</v>
       </c>
       <c r="L140" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C141" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D141" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G141" t="s">
         <v>16</v>
@@ -6999,100 +6994,100 @@
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J141" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K141">
         <v>7</v>
       </c>
       <c r="L141" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B142" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C142" t="s">
+        <v>363</v>
+      </c>
+      <c r="D142" t="s">
+        <v>364</v>
+      </c>
+      <c r="E142" t="s">
+        <v>365</v>
+      </c>
+      <c r="F142" t="s">
         <v>366</v>
       </c>
-      <c r="D142" t="s">
+      <c r="G142" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s">
+        <v>23</v>
+      </c>
+      <c r="I142" t="s">
         <v>367</v>
       </c>
-      <c r="E142" t="s">
-        <v>368</v>
-      </c>
-      <c r="F142" t="s">
-        <v>369</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
-      <c r="H142" t="s">
-        <v>23</v>
-      </c>
-      <c r="I142" t="s">
-        <v>370</v>
-      </c>
       <c r="J142" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K142">
         <v>7</v>
       </c>
       <c r="L142" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>642</v>
       </c>
       <c r="C143" t="s">
+        <v>368</v>
+      </c>
+      <c r="D143" t="s">
+        <v>369</v>
+      </c>
+      <c r="F143" t="s">
+        <v>370</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143" t="s">
         <v>371</v>
       </c>
-      <c r="D143" t="s">
-        <v>372</v>
-      </c>
-      <c r="F143" t="s">
-        <v>373</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" t="s">
-        <v>23</v>
-      </c>
-      <c r="I143" t="s">
-        <v>374</v>
-      </c>
       <c r="J143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K143">
         <v>7</v>
       </c>
       <c r="L143" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C144" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G144" t="s">
         <v>16</v>
@@ -7104,57 +7099,57 @@
         <v>18</v>
       </c>
       <c r="J144" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K144">
         <v>7</v>
       </c>
       <c r="L144" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
+        <v>372</v>
+      </c>
+      <c r="C145" t="s">
         <v>375</v>
       </c>
-      <c r="C145" t="s">
-        <v>378</v>
-      </c>
       <c r="G145" t="s">
         <v>16</v>
       </c>
       <c r="H145" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
       </c>
       <c r="J145" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K145">
         <v>7</v>
       </c>
       <c r="L145" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>239</v>
+      </c>
+      <c r="B146" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>241</v>
-      </c>
-      <c r="B146" t="s">
-        <v>375</v>
-      </c>
-      <c r="C146" t="s">
-        <v>379</v>
-      </c>
-      <c r="D146" t="s">
-        <v>380</v>
-      </c>
       <c r="G146" t="s">
         <v>25</v>
       </c>
@@ -7162,30 +7157,30 @@
         <v>23</v>
       </c>
       <c r="I146" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J146" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K146">
         <v>7</v>
       </c>
       <c r="L146" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B147" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C147" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E147" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
@@ -7194,30 +7189,30 @@
         <v>17</v>
       </c>
       <c r="I147" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J147" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K147">
         <v>7</v>
       </c>
       <c r="L147" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B148" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D148" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G148" t="s">
         <v>25</v>
@@ -7226,65 +7221,65 @@
         <v>23</v>
       </c>
       <c r="I148" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J148" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K148">
         <v>7</v>
       </c>
       <c r="L148" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B149" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C149" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D149" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E149" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F149" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G149" t="s">
         <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I149" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J149" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K149">
         <v>7</v>
       </c>
       <c r="L149" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B150" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C150" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G150" t="s">
         <v>16</v>
@@ -7296,59 +7291,59 @@
         <v>18</v>
       </c>
       <c r="J150" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K150">
         <v>7</v>
       </c>
       <c r="L150" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C151" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D151" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G151" t="s">
         <v>25</v>
       </c>
       <c r="H151" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="I151" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="J151" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K151">
         <v>7</v>
       </c>
       <c r="L151" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B152" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C152" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D152" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G152" t="s">
         <v>16</v>
@@ -7357,33 +7352,33 @@
         <v>17</v>
       </c>
       <c r="I152" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J152" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K152">
         <v>7</v>
       </c>
       <c r="L152" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B153" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C153" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D153" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F153" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
@@ -7392,30 +7387,30 @@
         <v>23</v>
       </c>
       <c r="I153" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K153">
         <v>7</v>
       </c>
       <c r="L153" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B154" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C154" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D154" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G154" t="s">
         <v>25</v>
@@ -7424,33 +7419,33 @@
         <v>23</v>
       </c>
       <c r="I154" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J154" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K154">
         <v>7</v>
       </c>
       <c r="L154" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C155" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D155" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E155" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G155" t="s">
         <v>25</v>
@@ -7459,65 +7454,65 @@
         <v>23</v>
       </c>
       <c r="I155" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K155">
         <v>7</v>
       </c>
       <c r="L155" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C156" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D156" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G156" t="s">
         <v>16</v>
       </c>
       <c r="H156" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I156" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="J156" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K156">
         <v>7</v>
       </c>
       <c r="L156" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D157" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E157" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G157" t="s">
         <v>25</v>
@@ -7526,27 +7521,27 @@
         <v>17</v>
       </c>
       <c r="I157" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="J157" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K157">
         <v>7</v>
       </c>
       <c r="L157" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C158" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G158" t="s">
         <v>25</v>
@@ -7558,252 +7553,252 @@
         <v>18</v>
       </c>
       <c r="J158" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K158">
         <v>7</v>
       </c>
       <c r="L158" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>239</v>
+      </c>
+      <c r="B159" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" t="s">
+        <v>405</v>
+      </c>
+      <c r="D159" t="s">
+        <v>406</v>
+      </c>
+      <c r="E159" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>241</v>
-      </c>
-      <c r="B159" t="s">
-        <v>405</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="G159" t="s">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s">
         <v>408</v>
       </c>
-      <c r="D159" t="s">
-        <v>409</v>
-      </c>
-      <c r="E159" t="s">
-        <v>410</v>
-      </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
-      <c r="H159" t="s">
-        <v>17</v>
-      </c>
-      <c r="I159" t="s">
-        <v>411</v>
-      </c>
       <c r="J159" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K159">
         <v>7</v>
       </c>
       <c r="L159" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B160" t="s">
+        <v>409</v>
+      </c>
+      <c r="C160" t="s">
+        <v>410</v>
+      </c>
+      <c r="D160" t="s">
+        <v>638</v>
+      </c>
+      <c r="E160" t="s">
+        <v>411</v>
+      </c>
+      <c r="F160" t="s">
         <v>412</v>
       </c>
-      <c r="C160" t="s">
+      <c r="G160" t="s">
+        <v>25</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
         <v>413</v>
       </c>
-      <c r="D160" t="s">
-        <v>641</v>
-      </c>
-      <c r="E160" t="s">
-        <v>414</v>
-      </c>
-      <c r="F160" t="s">
-        <v>415</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
-      <c r="H160" t="s">
-        <v>17</v>
-      </c>
-      <c r="I160" t="s">
-        <v>416</v>
-      </c>
       <c r="J160" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K160">
         <v>7</v>
       </c>
       <c r="L160" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" t="s">
+        <v>409</v>
+      </c>
+      <c r="C161" t="s">
+        <v>415</v>
+      </c>
+      <c r="D161" t="s">
+        <v>416</v>
+      </c>
+      <c r="F161" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>241</v>
-      </c>
-      <c r="B161" t="s">
-        <v>412</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s">
         <v>418</v>
       </c>
-      <c r="D161" t="s">
-        <v>419</v>
-      </c>
-      <c r="F161" t="s">
-        <v>420</v>
-      </c>
-      <c r="G161" t="s">
-        <v>16</v>
-      </c>
-      <c r="H161" t="s">
-        <v>17</v>
-      </c>
-      <c r="I161" t="s">
-        <v>421</v>
-      </c>
       <c r="J161" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K161">
         <v>7</v>
       </c>
       <c r="L161" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B162" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C162" t="s">
+        <v>419</v>
+      </c>
+      <c r="D162" t="s">
+        <v>420</v>
+      </c>
+      <c r="E162" t="s">
+        <v>421</v>
+      </c>
+      <c r="F162" t="s">
         <v>422</v>
       </c>
-      <c r="D162" t="s">
+      <c r="G162" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162" t="s">
         <v>423</v>
       </c>
-      <c r="E162" t="s">
-        <v>424</v>
-      </c>
-      <c r="F162" t="s">
-        <v>425</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" t="s">
-        <v>23</v>
-      </c>
-      <c r="I162" t="s">
-        <v>426</v>
-      </c>
       <c r="J162" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K162">
         <v>7</v>
       </c>
       <c r="L162" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C163" t="s">
+        <v>424</v>
+      </c>
+      <c r="D163" t="s">
+        <v>425</v>
+      </c>
+      <c r="E163" t="s">
+        <v>426</v>
+      </c>
+      <c r="F163" t="s">
         <v>427</v>
       </c>
-      <c r="D163" t="s">
+      <c r="G163" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" t="s">
+        <v>23</v>
+      </c>
+      <c r="I163" t="s">
         <v>428</v>
       </c>
-      <c r="E163" t="s">
-        <v>429</v>
-      </c>
-      <c r="F163" t="s">
-        <v>430</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
-      <c r="H163" t="s">
-        <v>23</v>
-      </c>
-      <c r="I163" t="s">
-        <v>431</v>
-      </c>
       <c r="J163" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K163">
         <v>7</v>
       </c>
       <c r="L163" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C164" t="s">
+        <v>429</v>
+      </c>
+      <c r="D164" t="s">
+        <v>639</v>
+      </c>
+      <c r="E164" t="s">
+        <v>430</v>
+      </c>
+      <c r="F164" t="s">
+        <v>431</v>
+      </c>
+      <c r="G164" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s">
         <v>432</v>
       </c>
-      <c r="D164" t="s">
-        <v>642</v>
-      </c>
-      <c r="E164" t="s">
-        <v>433</v>
-      </c>
-      <c r="F164" t="s">
-        <v>434</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
-      <c r="H164" t="s">
-        <v>17</v>
-      </c>
-      <c r="I164" t="s">
-        <v>435</v>
-      </c>
       <c r="J164" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K164">
         <v>7</v>
       </c>
       <c r="L164" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C165" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D165" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F165" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G165" t="s">
         <v>25</v>
@@ -7812,30 +7807,30 @@
         <v>23</v>
       </c>
       <c r="I165" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J165" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K165">
         <v>7</v>
       </c>
       <c r="L165" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C166" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E166" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G166" t="s">
         <v>16</v>
@@ -7844,30 +7839,30 @@
         <v>23</v>
       </c>
       <c r="I166" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J166" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K166">
         <v>7</v>
       </c>
       <c r="L166" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B167" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D167" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G167" t="s">
         <v>16</v>
@@ -7879,27 +7874,27 @@
         <v>18</v>
       </c>
       <c r="J167" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K167">
         <v>7</v>
       </c>
       <c r="L167" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C168" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D168" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G168" t="s">
         <v>16</v>
@@ -7908,33 +7903,33 @@
         <v>17</v>
       </c>
       <c r="I168" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J168" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K168">
         <v>7</v>
       </c>
       <c r="L168" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B169" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C169" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D169" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E169" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G169" t="s">
         <v>16</v>
@@ -7943,27 +7938,27 @@
         <v>17</v>
       </c>
       <c r="I169" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J169" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K169">
         <v>7</v>
       </c>
       <c r="L169" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B170" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C170" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G170" t="s">
         <v>16</v>
@@ -7975,30 +7970,30 @@
         <v>18</v>
       </c>
       <c r="J170" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K170">
         <v>7</v>
       </c>
       <c r="L170" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B171" t="s">
+        <v>442</v>
+      </c>
+      <c r="C171" t="s">
         <v>445</v>
       </c>
-      <c r="C171" t="s">
-        <v>448</v>
-      </c>
       <c r="D171" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E171" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G171" t="s">
         <v>25</v>
@@ -8007,65 +8002,65 @@
         <v>23</v>
       </c>
       <c r="I171" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J171" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K171">
         <v>7</v>
       </c>
       <c r="L171" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>239</v>
+      </c>
+      <c r="B172" t="s">
+        <v>442</v>
+      </c>
+      <c r="C172" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>241</v>
-      </c>
-      <c r="B172" t="s">
-        <v>445</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>448</v>
+      </c>
+      <c r="E172" t="s">
+        <v>449</v>
+      </c>
+      <c r="G172" t="s">
+        <v>25</v>
+      </c>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" t="s">
         <v>450</v>
       </c>
-      <c r="D172" t="s">
-        <v>451</v>
-      </c>
-      <c r="E172" t="s">
-        <v>452</v>
-      </c>
-      <c r="G172" t="s">
-        <v>25</v>
-      </c>
-      <c r="H172" t="s">
-        <v>23</v>
-      </c>
-      <c r="I172" t="s">
-        <v>453</v>
-      </c>
       <c r="J172" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K172">
         <v>7</v>
       </c>
       <c r="L172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C173" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D173" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G173" t="s">
         <v>16</v>
@@ -8077,42 +8072,42 @@
         <v>18</v>
       </c>
       <c r="J173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K173">
         <v>7</v>
       </c>
       <c r="L173" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
       </c>
       <c r="C174" t="s">
+        <v>454</v>
+      </c>
+      <c r="E174" t="s">
+        <v>455</v>
+      </c>
+      <c r="F174" t="s">
+        <v>456</v>
+      </c>
+      <c r="G174" t="s">
+        <v>25</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s">
         <v>457</v>
       </c>
-      <c r="E174" t="s">
+      <c r="J174" t="s">
         <v>458</v>
-      </c>
-      <c r="F174" t="s">
-        <v>459</v>
-      </c>
-      <c r="G174" t="s">
-        <v>25</v>
-      </c>
-      <c r="H174" t="s">
-        <v>17</v>
-      </c>
-      <c r="I174" t="s">
-        <v>460</v>
-      </c>
-      <c r="J174" t="s">
-        <v>461</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -8121,15 +8116,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
@@ -8141,7 +8136,7 @@
         <v>18</v>
       </c>
       <c r="J175" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -8150,18 +8145,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D176" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G176" t="s">
         <v>16</v>
@@ -8170,10 +8165,10 @@
         <v>23</v>
       </c>
       <c r="I176" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J176" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -8182,18 +8177,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D177" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G177" t="s">
         <v>25</v>
@@ -8202,10 +8197,10 @@
         <v>17</v>
       </c>
       <c r="I177" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J177" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K177">
         <v>1</v>
@@ -8214,15 +8209,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B178" t="s">
         <v>103</v>
       </c>
       <c r="C178" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
@@ -8231,10 +8226,10 @@
         <v>17</v>
       </c>
       <c r="I178" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J178" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -8243,15 +8238,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B179" t="s">
         <v>103</v>
       </c>
       <c r="C179" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G179" t="s">
         <v>25</v>
@@ -8263,7 +8258,7 @@
         <v>18</v>
       </c>
       <c r="J179" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -8272,18 +8267,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B180" t="s">
         <v>103</v>
       </c>
       <c r="C180" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F180" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G180" t="s">
         <v>25</v>
@@ -8292,10 +8287,10 @@
         <v>23</v>
       </c>
       <c r="I180" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J180" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K180">
         <v>1</v>
@@ -8304,15 +8299,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B181" t="s">
         <v>103</v>
       </c>
       <c r="C181" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G181" t="s">
         <v>16</v>
@@ -8324,7 +8319,7 @@
         <v>18</v>
       </c>
       <c r="J181" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K181">
         <v>1</v>
@@ -8333,47 +8328,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>471</v>
+      </c>
+      <c r="B182" t="s">
+        <v>472</v>
+      </c>
+      <c r="C182" t="s">
+        <v>473</v>
+      </c>
+      <c r="D182" t="s">
+        <v>595</v>
+      </c>
+      <c r="G182" t="s">
+        <v>25</v>
+      </c>
+      <c r="H182" t="s">
+        <v>17</v>
+      </c>
+      <c r="I182" t="s">
+        <v>596</v>
+      </c>
+      <c r="J182" t="s">
         <v>474</v>
-      </c>
-      <c r="B182" t="s">
-        <v>475</v>
-      </c>
-      <c r="C182" t="s">
-        <v>476</v>
-      </c>
-      <c r="D182" t="s">
-        <v>598</v>
-      </c>
-      <c r="G182" t="s">
-        <v>25</v>
-      </c>
-      <c r="H182" t="s">
-        <v>17</v>
-      </c>
-      <c r="I182" t="s">
-        <v>599</v>
-      </c>
-      <c r="J182" t="s">
-        <v>477</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
       <c r="L182" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B183" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C183" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G183" t="s">
         <v>16</v>
@@ -8385,129 +8380,129 @@
         <v>18</v>
       </c>
       <c r="J183" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K183">
         <v>1</v>
       </c>
       <c r="L183" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>471</v>
+      </c>
+      <c r="B184" t="s">
+        <v>472</v>
+      </c>
+      <c r="C184" t="s">
+        <v>477</v>
+      </c>
+      <c r="D184" t="s">
+        <v>641</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
+        <v>23</v>
+      </c>
+      <c r="I184" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="J184" t="s">
         <v>474</v>
-      </c>
-      <c r="B184" t="s">
-        <v>475</v>
-      </c>
-      <c r="C184" t="s">
-        <v>480</v>
-      </c>
-      <c r="D184" t="s">
-        <v>644</v>
-      </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" t="s">
-        <v>23</v>
-      </c>
-      <c r="I184" t="s">
-        <v>481</v>
-      </c>
-      <c r="J184" t="s">
-        <v>477</v>
       </c>
       <c r="K184">
         <v>1</v>
       </c>
       <c r="L184" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>471</v>
+      </c>
+      <c r="B185" t="s">
+        <v>472</v>
+      </c>
+      <c r="C185" t="s">
+        <v>479</v>
+      </c>
+      <c r="D185" t="s">
+        <v>480</v>
+      </c>
+      <c r="E185" t="s">
+        <v>481</v>
+      </c>
+      <c r="G185" t="s">
+        <v>25</v>
+      </c>
+      <c r="H185" t="s">
+        <v>17</v>
+      </c>
+      <c r="I185" t="s">
+        <v>482</v>
+      </c>
+      <c r="J185" t="s">
         <v>474</v>
-      </c>
-      <c r="B185" t="s">
-        <v>475</v>
-      </c>
-      <c r="C185" t="s">
-        <v>482</v>
-      </c>
-      <c r="D185" t="s">
-        <v>483</v>
-      </c>
-      <c r="E185" t="s">
-        <v>484</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
-      <c r="H185" t="s">
-        <v>17</v>
-      </c>
-      <c r="I185" t="s">
-        <v>485</v>
-      </c>
-      <c r="J185" t="s">
-        <v>477</v>
       </c>
       <c r="K185">
         <v>1</v>
       </c>
       <c r="L185" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>471</v>
+      </c>
+      <c r="B186" t="s">
+        <v>472</v>
+      </c>
+      <c r="C186" t="s">
+        <v>483</v>
+      </c>
+      <c r="D186" t="s">
+        <v>484</v>
+      </c>
+      <c r="E186" t="s">
+        <v>485</v>
+      </c>
+      <c r="F186" t="s">
+        <v>486</v>
+      </c>
+      <c r="G186" t="s">
+        <v>25</v>
+      </c>
+      <c r="H186" t="s">
+        <v>17</v>
+      </c>
+      <c r="I186" t="s">
+        <v>487</v>
+      </c>
+      <c r="J186" t="s">
         <v>474</v>
-      </c>
-      <c r="B186" t="s">
-        <v>475</v>
-      </c>
-      <c r="C186" t="s">
-        <v>486</v>
-      </c>
-      <c r="D186" t="s">
-        <v>487</v>
-      </c>
-      <c r="E186" t="s">
-        <v>488</v>
-      </c>
-      <c r="F186" t="s">
-        <v>489</v>
-      </c>
-      <c r="G186" t="s">
-        <v>25</v>
-      </c>
-      <c r="H186" t="s">
-        <v>17</v>
-      </c>
-      <c r="I186" t="s">
-        <v>490</v>
-      </c>
-      <c r="J186" t="s">
-        <v>477</v>
       </c>
       <c r="K186">
         <v>1</v>
       </c>
       <c r="L186" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B187" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C187" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G187" t="s">
         <v>16</v>
@@ -8519,56 +8514,56 @@
         <v>18</v>
       </c>
       <c r="J187" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K187">
         <v>1</v>
       </c>
       <c r="L187" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>471</v>
+      </c>
+      <c r="B188" t="s">
+        <v>472</v>
+      </c>
+      <c r="C188" t="s">
+        <v>489</v>
+      </c>
+      <c r="D188" t="s">
+        <v>490</v>
+      </c>
+      <c r="G188" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" t="s">
+        <v>491</v>
+      </c>
+      <c r="J188" t="s">
         <v>474</v>
-      </c>
-      <c r="B188" t="s">
-        <v>475</v>
-      </c>
-      <c r="C188" t="s">
-        <v>492</v>
-      </c>
-      <c r="D188" t="s">
-        <v>493</v>
-      </c>
-      <c r="G188" t="s">
-        <v>25</v>
-      </c>
-      <c r="H188" t="s">
-        <v>23</v>
-      </c>
-      <c r="I188" t="s">
-        <v>494</v>
-      </c>
-      <c r="J188" t="s">
-        <v>477</v>
       </c>
       <c r="K188">
         <v>1</v>
       </c>
       <c r="L188" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B189" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C189" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
@@ -8580,27 +8575,27 @@
         <v>18</v>
       </c>
       <c r="J189" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K189">
         <v>1</v>
       </c>
       <c r="L189" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C190" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D190" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G190" t="s">
         <v>25</v>
@@ -8609,7 +8604,7 @@
         <v>23</v>
       </c>
       <c r="I190" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J190" t="s">
         <v>107</v>
@@ -8618,18 +8613,18 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>493</v>
+      </c>
+      <c r="B191" t="s">
+        <v>172</v>
+      </c>
+      <c r="C191" t="s">
         <v>496</v>
-      </c>
-      <c r="B191" t="s">
-        <v>174</v>
-      </c>
-      <c r="C191" t="s">
-        <v>499</v>
       </c>
       <c r="G191" t="s">
         <v>16</v>
@@ -8647,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="L191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
